--- a/Ionization of Mercury/IonizationofMercury.xlsx
+++ b/Ionization of Mercury/IonizationofMercury.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4290" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4290" windowHeight="5415" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2" sheetId="2" r:id="rId2"/>
+    <sheet name="P2 Clean" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,21 +26,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>Voltage (V)</t>
   </si>
   <si>
-    <t>Ionization of Mercury</t>
-  </si>
-  <si>
     <t>Current (mA)</t>
-  </si>
-  <si>
-    <t>V er (V)</t>
-  </si>
-  <si>
-    <t>I er (mA)</t>
   </si>
   <si>
     <t>Switch: 1</t>
@@ -46,14 +39,51 @@
   <si>
     <t>Switch: 2</t>
   </si>
+  <si>
+    <t>Electrometer (Ax10^-9)</t>
+  </si>
+  <si>
+    <t>Maxed: 162.5</t>
+  </si>
+  <si>
+    <t>Voltage (V) UP</t>
+  </si>
+  <si>
+    <t>Voltage (V) down</t>
+  </si>
+  <si>
+    <t>Sub Up</t>
+  </si>
+  <si>
+    <t>Sub down</t>
+  </si>
+  <si>
+    <t>Sub up</t>
+  </si>
+  <si>
+    <t>Recorded Voltage [V]</t>
+  </si>
+  <si>
+    <t>Current [mA*10^-9]</t>
+  </si>
+  <si>
+    <t>Adjusted Voltage [V]</t>
+  </si>
+  <si>
+    <t>Altered Current</t>
+  </si>
+  <si>
+    <t>Altered Voltage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="#,##0.000"/>
-    <numFmt numFmtId="166" formatCode="#,##0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="#,##0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -84,10 +114,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -140,7 +175,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Switch 2</a:t>
+              <a:t>Uncalibrated switch measurements</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -176,7 +211,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.1444935639838159E-2"/>
+          <c:y val="8.4383362216741184E-2"/>
+          <c:w val="0.92923060093513388"/>
+          <c:h val="0.83636774743826714"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -184,22 +229,13 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$H$2:$H$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Switch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>V er (V)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Switch 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -221,155 +257,242 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$46</c:f>
+              <c:f>'Part 1'!$A$4:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
-                  <c:v>5.0069999999999997</c:v>
+                  <c:v>2.5999999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0030000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.0119999999999996</c:v>
+                  <c:v>2.0009999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.1</c:v>
+                  <c:v>3.0019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.2050000000000001</c:v>
+                  <c:v>4.0039999999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.3</c:v>
+                  <c:v>5.0019999999999998</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>7.4130000000000003</c:v>
+                  <c:v>5.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7.5049999999999999</c:v>
+                  <c:v>5.12</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.6020000000000003</c:v>
+                  <c:v>5.2089999999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>7.7080000000000002</c:v>
+                  <c:v>5.2679999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.9009999999999998</c:v>
+                  <c:v>5.4009999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="#,##0.000">
+                  <c:v>5.5910000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>8.0050000000000008</c:v>
+                  <c:v>5.7039999999999997</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.1050000000000004</c:v>
+                  <c:v>5.8049999999999997</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>8.1869999999999994</c:v>
+                  <c:v>5.9029999999999996</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8.3070000000000004</c:v>
+                  <c:v>6.0069999999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8.4019999999999992</c:v>
+                  <c:v>6.1040000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8.4979999999999993</c:v>
+                  <c:v>6.2050000000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.6059999999999999</c:v>
+                  <c:v>6.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.7040000000000006</c:v>
+                  <c:v>6.4020000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8.8030000000000008</c:v>
+                  <c:v>6.508</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8.9</c:v>
+                  <c:v>6.7560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>9.01</c:v>
+                  <c:v>6.8</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>9.1</c:v>
+                  <c:v>7.0030000000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>9.2050000000000001</c:v>
+                  <c:v>7.2409999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>9.3070000000000004</c:v>
+                  <c:v>7.5119999999999996</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9.3889999999999993</c:v>
+                  <c:v>7.7560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9.5030000000000001</c:v>
+                  <c:v>8.0489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>9.6620000000000008</c:v>
+                  <c:v>8.5370000000000008</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>9.7550000000000008</c:v>
+                  <c:v>9.0649999999999995</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10.012</c:v>
+                  <c:v>9.5489999999999995</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10.27</c:v>
+                  <c:v>10.076000000000001</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>10.502000000000001</c:v>
+                  <c:v>10.494999999999999</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>10.775</c:v>
+                  <c:v>10.763</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11.004</c:v>
+                  <c:v>11.026</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11.488</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.505000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.756</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.297000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.512</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.742000000000001</c:v>
+                  <c:v>11.138999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$4:$H$46</c:f>
+              <c:f>'Part 1'!$D$4:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.88849818260367752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2695164546828319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6482539484883461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0182831284771843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3901507838320488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.761943338789874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9509348235262696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.810191550287843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8397020818385852</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8640199558190718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9116067240118975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9864931017573073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0291614845071742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.065061369276326</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1041586507243615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1422591153980535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1791953042150967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2166987964014284</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2524694916181072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2907278825448167</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3306284246566542</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4088557616907988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4260576341926599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5026007075855841</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5878607584374302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6886954760292237</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.777613081130867</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8839542215049447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0776576249797785</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3511045102989634</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6963838452932141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2868111135782048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9531125583287441</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5998165314778401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7463866610619565</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.116196977075232</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-99BC-4193-81D5-38A7952CC696}"/>
+              <c16:uniqueId val="{00000000-DFCB-4E42-92FB-20EEA64650A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -377,22 +500,13 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2:$I$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Switch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Current (mA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Switch 2</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -414,7 +528,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$4:$G$46</c:f>
+              <c:f>'Part 1'!$F$4:$F$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
@@ -552,138 +666,138 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$4:$I$46</c:f>
+              <c:f>'Part 1'!$I$4:$I$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="43"/>
                 <c:pt idx="0">
-                  <c:v>2.4266000000000001</c:v>
+                  <c:v>1.8057825925315851</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3.2075</c:v>
+                  <c:v>2.1749257912761819</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0785999999999998</c:v>
+                  <c:v>2.5527448572279576</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.1452</c:v>
+                  <c:v>2.5804591775319281</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.2405999999999997</c:v>
+                  <c:v>2.6199009519108367</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.3266999999999998</c:v>
+                  <c:v>2.6552445273745451</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.4333</c:v>
+                  <c:v>2.6986801454947553</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.5175999999999998</c:v>
+                  <c:v>2.7327832251382156</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.6079999999999997</c:v>
+                  <c:v>2.7691191749902235</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.7054999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10" formatCode="#,##0.0000">
-                  <c:v>4.7930999999999999</c:v>
+                  <c:v>2.808043633048583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8427870383087122</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.8912000000000004</c:v>
+                  <c:v>2.8814446455961154</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9936999999999996</c:v>
+                  <c:v>2.9215610472269788</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.0883000000000003</c:v>
+                  <c:v>2.9583426353808333</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.1684000000000001</c:v>
+                  <c:v>2.989308556273552</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.2830000000000004</c:v>
+                  <c:v>3.0333352158208609</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.3780000000000001</c:v>
+                  <c:v>3.0695911348458544</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.4752000000000001</c:v>
+                  <c:v>3.1064663856427717</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.5861000000000001</c:v>
+                  <c:v>3.1482736222576038</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.6864999999999997</c:v>
+                  <c:v>3.1858845147131558</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>5.7862999999999998</c:v>
+                  <c:v>3.2230518912575952</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>5.8887</c:v>
+                  <c:v>3.2609661184273255</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>5.9970999999999997</c:v>
+                  <c:v>3.3008632088330221</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>6.0814000000000004</c:v>
+                  <c:v>3.331724224377723</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>6.1881000000000004</c:v>
+                  <c:v>3.3705818837497095</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>6.2964000000000002</c:v>
+                  <c:v>3.4097945072145222</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>6.3804999999999996</c:v>
+                  <c:v>3.4400900308260653</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>6.5003000000000002</c:v>
+                  <c:v>3.4830170495749351</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>6.6643999999999997</c:v>
+                  <c:v>3.5413922875186925</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>6.7628000000000004</c:v>
+                  <c:v>3.5761662151836187</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>7.0326000000000004</c:v>
+                  <c:v>3.670658182680941</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>7.3014000000000001</c:v>
+                  <c:v>3.7636054982797789</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>7.5517000000000003</c:v>
+                  <c:v>3.8491350818076762</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>7.8498999999999999</c:v>
+                  <c:v>3.9498088891140322</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>8.1267999999999994</c:v>
+                  <c:v>4.0421557915694759</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>8.8444000000000003</c:v>
+                  <c:v>4.2767341114769204</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>9.9</c:v>
+                  <c:v>4.6105931042857726</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11.555</c:v>
+                  <c:v>5.1110873104156678</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>12.888</c:v>
+                  <c:v>5.4969740269448382</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>14.4</c:v>
+                  <c:v>5.9189089783931275</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>17.317</c:v>
+                  <c:v>6.6934255624657863</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>21.3</c:v>
+                  <c:v>7.6839831226550981</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>24.617000000000001</c:v>
+                  <c:v>8.4623324657175534</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -691,200 +805,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-99BC-4193-81D5-38A7952CC696}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$J$2:$J$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Switch</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>I er (mA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$G$4:$G$46</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
-                <c:pt idx="0">
-                  <c:v>5.0069999999999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>6.0030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.0119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.2050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7.3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.4130000000000003</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7.5049999999999999</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>7.6020000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>7.7080000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7.8010000000000002</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>7.9009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8.0050000000000008</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.1050000000000004</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>8.1869999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8.3070000000000004</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.4019999999999992</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>8.4979999999999993</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>8.6059999999999999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.7040000000000006</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>8.8030000000000008</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>9.01</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>9.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>9.2050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>9.3070000000000004</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>9.3889999999999993</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>9.5030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>9.6620000000000008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.7550000000000008</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.012</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.27</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.502000000000001</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.775</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.488</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>12.01</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>12.505000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>12.756</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>13.004</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>13.297000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>13.512</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>13.742000000000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$J$4:$J$42</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="39"/>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-99BC-4193-81D5-38A7952CC696}"/>
+              <c16:uniqueId val="{00000001-DFCB-4E42-92FB-20EEA64650A7}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -896,11 +817,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="401473520"/>
-        <c:axId val="401473848"/>
+        <c:axId val="431048992"/>
+        <c:axId val="431047680"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="401473520"/>
+        <c:axId val="431048992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -920,6 +841,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -957,12 +908,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401473848"/>
+        <c:crossAx val="431047680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="401473848"/>
+        <c:axId val="431047680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -982,6 +933,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1019,7 +1000,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="401473520"/>
+        <c:crossAx val="431048992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1032,7 +1013,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="r"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1134,7 +1115,958 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Switch 1</a:t>
+              <a:t>Calibration</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> of both switch positions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6308178543156334E-2"/>
+          <c:y val="0.14758708317940783"/>
+          <c:w val="0.8467760502903775"/>
+          <c:h val="0.63403584103513033"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Switch 1 Cal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$B$4:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>2.4206000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.4190000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.42</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.4219999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.42</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.9180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.5380000000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.6269999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.819</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.0090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.1219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.222999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.3209999999999997</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4250000000000007</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.5220000000000002</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.6230000000000011</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.7259999999999991</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.82</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.9260000000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.1739999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.218</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.4209999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.6589999999999989</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.93</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>10.173999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>10.466999999999999</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>10.955000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>11.483000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>11.966999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>12.494</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>12.913</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>13.181000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>13.443999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.556999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$D$4:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="36"/>
+                <c:pt idx="0">
+                  <c:v>0.88849818260367752</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2695164546828319</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6482539484883461</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0182831284771843</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3901507838320488</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.761943338789874</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.9509348235262696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.810191550287843</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.8397020818385852</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.8640199558190718</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.9116067240118975</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.9864931017573073</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0291614845071742</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.065061369276326</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.1041586507243615</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.1422591153980535</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1791953042150967</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.2166987964014284</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.2524694916181072</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.2907278825448167</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.3306284246566542</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4088557616907988</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4260576341926599</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.5026007075855841</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.5878607584374302</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.6886954760292237</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.777613081130867</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.8839542215049447</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4.0776576249797785</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.3511045102989634</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.6963838452932141</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.2868111135782048</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.9531125583287441</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.5998165314778401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.7463866610619565</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>13.116196977075232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A24E-4BDA-9214-2A549A58FB3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Switch 2 Cal</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 1'!$G$4:$G$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>4.9369999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.9329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.9419999999999993</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.2299999999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.343</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7.4349999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.6379999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.7309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.8309999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.9350000000000005</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.1169999999999991</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.331999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.427999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5359999999999996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.6340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.7330000000000005</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.83</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8.94</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3189999999999991</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.4329999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.5920000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.6850000000000005</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.9420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.432</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.705</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.933999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.94</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.435</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.686</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>12.933999999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>13.227</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>13.442</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>13.672000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 1'!$I$4:$I$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="43"/>
+                <c:pt idx="0">
+                  <c:v>1.8057825925315851</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1749257912761819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5527448572279576</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5804591775319281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.6199009519108367</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.6552445273745451</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.6986801454947553</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7327832251382156</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7691191749902235</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.808043633048583</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8427870383087122</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8814446455961154</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.9215610472269788</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.9583426353808333</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.989308556273552</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0333352158208609</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0695911348458544</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.1064663856427717</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.1482736222576038</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.1858845147131558</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2230518912575952</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.2609661184273255</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.3008632088330221</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.331724224377723</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.3705818837497095</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.4097945072145222</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4400900308260653</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>3.4830170495749351</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>3.5413922875186925</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5761662151836187</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3.670658182680941</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.7636054982797789</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.8491350818076762</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.9498088891140322</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.0421557915694759</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.2767341114769204</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.6105931042857726</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>5.1110873104156678</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.4969740269448382</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.9189089783931275</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.6934255624657863</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>7.6839831226550981</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.4623324657175534</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A24E-4BDA-9214-2A549A58FB3F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="603628760"/>
+        <c:axId val="603629088"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="603628760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603629088"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="603629088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="603628760"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.33689129741664869"/>
+          <c:y val="0.89173750000690244"/>
+          <c:w val="0.32621720651613584"/>
+          <c:h val="6.0770162580048054E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>365</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1178,24 +2110,10 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Ionization of Mercury</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Switch: 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>V er (V)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>UP</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1218,132 +2136,150 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$39</c:f>
+              <c:f>'Part 2'!$E$3:$E$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2.5999999999999999E-3</c:v>
+                  <c:v>-1.4180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>-0.41800000000000015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0009999999999999</c:v>
+                  <c:v>0.58199999999999985</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0019999999999998</c:v>
+                  <c:v>1.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0039999999999996</c:v>
+                  <c:v>2.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0019999999999998</c:v>
+                  <c:v>3.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>4.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.12</c:v>
+                  <c:v>5.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2089999999999996</c:v>
+                  <c:v>6.6000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2679999999999998</c:v>
+                  <c:v>7.085</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0.000">
-                  <c:v>5.5910000000000002</c:v>
+                  <c:v>7.6139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.1170000000000009</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7039999999999997</c:v>
+                  <c:v>8.6340000000000003</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8049999999999997</c:v>
+                  <c:v>9.0910000000000011</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9029999999999996</c:v>
+                  <c:v>9.7210000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0069999999999997</c:v>
+                  <c:v>9.9959999999999987</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1040000000000001</c:v>
+                  <c:v>10.652000000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2050000000000001</c:v>
+                  <c:v>10.798999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3079999999999998</c:v>
+                  <c:v>11.059999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.4020000000000001</c:v>
+                  <c:v>11.228999999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.508</c:v>
+                  <c:v>11.562000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.7560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.2409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.5119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.7560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.0489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.5370000000000008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.0649999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.5489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.494999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.763</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.026</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.138999999999999</c:v>
+                  <c:v>12.082000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$39</c:f>
+              <c:f>'Part 2'!$B$3:$B$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.56000000000000005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1E-4</c:v>
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.97</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.94</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.13</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.0299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>15.42</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>21.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>25.6</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>36.5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>93.4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>161.30000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1351,7 +2287,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4859-419B-98FB-5D27327718A3}"/>
+              <c16:uniqueId val="{00000003-5269-4B2A-8EB1-8312C81AE711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1359,24 +2295,10 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1:$C$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Ionization of Mercury</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Switch: 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Current (mA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Down</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -1399,234 +2321,150 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$4:$A$39</c:f>
+              <c:f>'Part 2'!$F$3:$F$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>2.5999999999999999E-3</c:v>
+                  <c:v>10.358000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>10.161999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0009999999999999</c:v>
+                  <c:v>10.091999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.0019999999999998</c:v>
+                  <c:v>10.004000000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0039999999999996</c:v>
+                  <c:v>9.9310000000000009</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.0019999999999998</c:v>
+                  <c:v>9.8180000000000014</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.5</c:v>
+                  <c:v>9.3079999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.12</c:v>
+                  <c:v>8.7850000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5.2089999999999996</c:v>
+                  <c:v>8.5629999999999988</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.2679999999999998</c:v>
+                  <c:v>7.9899999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0.000">
-                  <c:v>5.5910000000000002</c:v>
+                  <c:v>7.1879999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.7039999999999997</c:v>
+                  <c:v>6.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.8049999999999997</c:v>
+                  <c:v>6.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.9029999999999996</c:v>
+                  <c:v>5.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>6.0069999999999997</c:v>
+                  <c:v>4.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>6.1040000000000001</c:v>
+                  <c:v>3.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>6.2050000000000001</c:v>
+                  <c:v>2.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>6.3079999999999998</c:v>
+                  <c:v>1.5819999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.4020000000000001</c:v>
+                  <c:v>0.58199999999999985</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.508</c:v>
+                  <c:v>-0.41800000000000015</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.7560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.2409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.5119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.7560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.0489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.5370000000000008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.0649999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.5489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.494999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.763</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.026</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.138999999999999</c:v>
+                  <c:v>-1.4180000000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$39</c:f>
+              <c:f>'Part 2'!$D$3:$D$24</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="22"/>
                 <c:pt idx="0">
-                  <c:v>0.83750000000000002</c:v>
+                  <c:v>41.7</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4303999999999999</c:v>
+                  <c:v>27.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.1160999999999999</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8673000000000002</c:v>
+                  <c:v>17.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6951999999999998</c:v>
+                  <c:v>13.95</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.5900999999999996</c:v>
+                  <c:v>9.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.0692000000000004</c:v>
+                  <c:v>4.16</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.7108999999999996</c:v>
+                  <c:v>2.15</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.7853000000000003</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4.8468999999999998</c:v>
+                  <c:v>1.1000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>4.9682000000000004</c:v>
+                  <c:v>0.7</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>5.1611000000000002</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>5.2721</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>5.3661000000000003</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.4691000000000001</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>5.5701000000000001</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>5.6685999999999996</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>5.7691999999999997</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>5.8657000000000004</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>5.9695</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>6.0784000000000002</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>6.2938000000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.3414999999999999</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>6.5552000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>6.7960000000000003</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.0845000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.3422000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>7.6543999999999999</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.2340999999999998</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.0761000000000003</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>10.1776</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>12.156000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>14.525</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>16.954999999999998</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>21.56</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>47.502000000000002</c:v>
+                  <c:v>0.65</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1634,188 +2472,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4859-419B-98FB-5D27327718A3}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1:$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Ionization of Mercury</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Switch: 1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>I er (mA)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$4:$A$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2.5999999999999999E-3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.0009999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0019999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.0039999999999996</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5.0019999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5.12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.2089999999999996</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>5.2679999999999998</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5.4009999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11" formatCode="#,##0.000">
-                  <c:v>5.5910000000000002</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5.7039999999999997</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.8049999999999997</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>5.9029999999999996</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6.0069999999999997</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>6.1040000000000001</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>6.2050000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>6.3079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>6.4020000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>6.508</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>6.7560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.8</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.0030000000000001</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>7.2409999999999997</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>7.5119999999999996</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>7.7560000000000002</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>8.0489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>8.5370000000000008</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>9.0649999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>9.5489999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>10.076000000000001</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>10.494999999999999</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>10.763</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>11.026</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>11.138999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$4:$D$39</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
-                <c:pt idx="0">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0000000000000001E-4</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4859-419B-98FB-5D27327718A3}"/>
+              <c16:uniqueId val="{00000004-5269-4B2A-8EB1-8312C81AE711}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1827,13 +2484,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="325964064"/>
-        <c:axId val="325963408"/>
+        <c:axId val="354698000"/>
+        <c:axId val="355037848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="325964064"/>
+        <c:axId val="354698000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1851,6 +2509,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1888,12 +2576,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325963408"/>
+        <c:crossAx val="355037848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="325963408"/>
+        <c:axId val="355037848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,6 +2601,36 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1950,8 +2668,8 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="325964064"/>
-        <c:crosses val="autoZero"/>
+        <c:crossAx val="354698000"/>
+        <c:crossesAt val="-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -1964,6 +2682,1467 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>546</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>UP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 2'!$L$3:$L$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>-1.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58199999999999985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1390000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0859999999999994</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.839999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.5249999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8.0309999999999988</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.7489999999999988</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8.9720000000000013</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6469999999999985</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.9430000000000014</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10.088999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10.417999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10.669999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10.934000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>11.251000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 2'!$I$3:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.05</c:v>
+                </c:pt>
+                <c:pt idx="13" formatCode="0.0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11.1</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13.5</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>30.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D07E-4411-8740-FC5A519422ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DOWN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 2'!$M$3:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>11.283999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.433</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.228000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8820000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3730000000000011</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.0599999999999987</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.5449999999999982</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.2010000000000005</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7160000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.2549999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7380000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.056</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.5369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.4409999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.6920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.4719999999999995</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.2519999999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.2000000000000028E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.57800000000000007</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1880000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 2'!$K$3:$K$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="23"/>
+                <c:pt idx="0">
+                  <c:v>28.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.24</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.06</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.26</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.78</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.64</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.65</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-D07E-4411-8740-FC5A519422ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="450941608"/>
+        <c:axId val="450942592"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="450941608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450942592"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="450942592"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450941608"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>492</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42338188976377955"/>
+          <c:y val="3.7037037037037035E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>UP</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 2'!$S$3:$S$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>-1.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.41800000000000015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58199999999999985</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.0809999999999995</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8.6469999999999985</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.5670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>10.190000000000001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10.355999999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10.797000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>11.001999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>11.111000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>11.129000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 2'!$P$3:$P$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.07</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.4499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.8699999999999992</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10.53</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>21.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A011-4CAE-9546-E01A4951927C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DOWN</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Part 2'!$T$3:$T$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>11.036000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.614000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.556999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.588000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.0689999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0990000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5819999999999999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.58199999999999985</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.41800000000000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Part 2'!$R$3:$R$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>9.65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.85</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.56</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.07</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.66</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.66</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-A011-4CAE-9546-E01A4951927C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="348577888"/>
+        <c:axId val="348577232"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="348577888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="-2"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348577232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="348577232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Current [mA*10^-9]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.4793388429752067E-2"/>
+              <c:y val="0.24139253426655002"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="348577888"/>
+        <c:crossesAt val="-2"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15480748790698684"/>
+          <c:y val="0.19039297171186936"/>
+          <c:w val="0.18349797184442854"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2110,6 +4289,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3142,27 +5441,1575 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>176213</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>107154</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>80961</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{649CF9A0-302C-4BB2-A03D-72A482387AFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF391CE1-9C4D-4D77-B6CF-21792B03B0EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3182,23 +7029,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>61910</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>102393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13EF5962-96F3-4A33-AC2C-2158B34F7A68}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5323179A-EFB8-4C1A-8976-84C69C048587}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3211,6 +7058,119 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>50006</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>164306</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>73818</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7BFD854-0AC9-46F2-8383-F23B63B1ED7C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>435768</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>169068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1216818</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{027A6A9B-811B-4EE0-A6F4-A91EA4813BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>464342</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>169069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>416717</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>33339</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09FCBADF-53DF-4E30-A6E3-2B629895C1B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3516,637 +7476,3050 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" customWidth="1"/>
+    <col min="3" max="3" width="10.796875" customWidth="1"/>
+    <col min="4" max="4" width="13.265625" customWidth="1"/>
+    <col min="5" max="5" width="11.265625" customWidth="1"/>
+    <col min="6" max="6" width="10.9296875" customWidth="1"/>
+    <col min="7" max="7" width="13.06640625" customWidth="1"/>
+    <col min="8" max="8" width="10.73046875" customWidth="1"/>
+    <col min="9" max="9" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="F2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4">
         <v>2.5999999999999999E-3</v>
       </c>
       <c r="B4">
-        <v>1E-4</v>
+        <f>A4+2.418</f>
+        <v>2.4206000000000003</v>
       </c>
       <c r="C4">
         <v>0.83750000000000002</v>
       </c>
       <c r="D4">
-        <v>2.0000000000000001E-4</v>
+        <f>C4^(2/3)</f>
+        <v>0.88849818260367752</v>
+      </c>
+      <c r="F4">
+        <v>5.0069999999999997</v>
       </c>
       <c r="G4">
-        <v>5.0069999999999997</v>
+        <f>F4-0.07</f>
+        <v>4.9369999999999994</v>
+      </c>
+      <c r="H4">
+        <v>2.4266000000000001</v>
       </c>
       <c r="I4">
-        <v>2.4266000000000001</v>
+        <f>H4^(2/3)</f>
+        <v>1.8057825925315851</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5">
-        <v>1E-4</v>
+        <f t="shared" ref="B5:B39" si="0">A5+2.418</f>
+        <v>3.4180000000000001</v>
       </c>
       <c r="C5">
         <v>1.4303999999999999</v>
       </c>
       <c r="D5">
-        <v>2.0000000000000001E-4</v>
+        <f>C5^(2/3)</f>
+        <v>1.2695164546828319</v>
+      </c>
+      <c r="F5">
+        <v>6.0030000000000001</v>
       </c>
       <c r="G5">
-        <v>6.0030000000000001</v>
+        <f t="shared" ref="G5:G46" si="1">F5-0.07</f>
+        <v>5.9329999999999998</v>
+      </c>
+      <c r="H5">
+        <v>3.2075</v>
       </c>
       <c r="I5">
-        <v>3.2075</v>
+        <f>H5^(2/3)</f>
+        <v>2.1749257912761819</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2.0009999999999999</v>
       </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>4.4190000000000005</v>
+      </c>
       <c r="C6">
         <v>2.1160999999999999</v>
       </c>
+      <c r="D6">
+        <f>C6^(2/3)</f>
+        <v>1.6482539484883461</v>
+      </c>
+      <c r="F6">
+        <v>7.0119999999999996</v>
+      </c>
       <c r="G6">
-        <v>7.0119999999999996</v>
+        <f t="shared" si="1"/>
+        <v>6.9419999999999993</v>
+      </c>
+      <c r="H6">
+        <v>4.0785999999999998</v>
       </c>
       <c r="I6">
-        <v>4.0785999999999998</v>
+        <f>H6^(2/3)</f>
+        <v>2.5527448572279576</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>3.0019999999999998</v>
       </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>5.42</v>
+      </c>
       <c r="C7">
         <v>2.8673000000000002</v>
       </c>
+      <c r="D7">
+        <f>C7^(2/3)</f>
+        <v>2.0182831284771843</v>
+      </c>
+      <c r="F7">
+        <v>7.1</v>
+      </c>
       <c r="G7">
-        <v>7.1</v>
+        <f t="shared" si="1"/>
+        <v>7.0299999999999994</v>
+      </c>
+      <c r="H7">
+        <v>4.1452</v>
       </c>
       <c r="I7">
-        <v>4.1452</v>
+        <f>H7^(2/3)</f>
+        <v>2.5804591775319281</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>4.0039999999999996</v>
       </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>6.4219999999999997</v>
+      </c>
       <c r="C8">
         <v>3.6951999999999998</v>
       </c>
+      <c r="D8">
+        <f>C8^(2/3)</f>
+        <v>2.3901507838320488</v>
+      </c>
+      <c r="F8">
+        <v>7.2050000000000001</v>
+      </c>
       <c r="G8">
-        <v>7.2050000000000001</v>
+        <f t="shared" si="1"/>
+        <v>7.1349999999999998</v>
+      </c>
+      <c r="H8">
+        <v>4.2405999999999997</v>
       </c>
       <c r="I8">
-        <v>4.2405999999999997</v>
+        <f>H8^(2/3)</f>
+        <v>2.6199009519108367</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>5.0019999999999998</v>
       </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>7.42</v>
+      </c>
       <c r="C9">
         <v>4.5900999999999996</v>
       </c>
+      <c r="D9">
+        <f>C9^(2/3)</f>
+        <v>2.761943338789874</v>
+      </c>
+      <c r="F9">
+        <v>7.3</v>
+      </c>
       <c r="G9">
-        <v>7.3</v>
+        <f t="shared" si="1"/>
+        <v>7.2299999999999995</v>
+      </c>
+      <c r="H9">
+        <v>4.3266999999999998</v>
       </c>
       <c r="I9">
-        <v>4.3266999999999998</v>
+        <f>H9^(2/3)</f>
+        <v>2.6552445273745451</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>5.5</v>
       </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>7.9180000000000001</v>
+      </c>
       <c r="C10">
         <v>5.0692000000000004</v>
       </c>
+      <c r="D10">
+        <f>C10^(2/3)</f>
+        <v>2.9509348235262696</v>
+      </c>
+      <c r="F10">
+        <v>7.4130000000000003</v>
+      </c>
       <c r="G10">
-        <v>7.4130000000000003</v>
+        <f t="shared" si="1"/>
+        <v>7.343</v>
+      </c>
+      <c r="H10">
+        <v>4.4333</v>
       </c>
       <c r="I10">
-        <v>4.4333</v>
+        <f>H10^(2/3)</f>
+        <v>2.6986801454947553</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>5.12</v>
       </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>7.5380000000000003</v>
+      </c>
       <c r="C11">
         <v>4.7108999999999996</v>
       </c>
+      <c r="D11">
+        <f>C11^(2/3)</f>
+        <v>2.810191550287843</v>
+      </c>
+      <c r="F11">
+        <v>7.5049999999999999</v>
+      </c>
       <c r="G11">
-        <v>7.5049999999999999</v>
+        <f t="shared" si="1"/>
+        <v>7.4349999999999996</v>
+      </c>
+      <c r="H11">
+        <v>4.5175999999999998</v>
       </c>
       <c r="I11">
-        <v>4.5175999999999998</v>
+        <f>H11^(2/3)</f>
+        <v>2.7327832251382156</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>5.2089999999999996</v>
       </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>7.6269999999999998</v>
+      </c>
       <c r="C12">
         <v>4.7853000000000003</v>
       </c>
+      <c r="D12">
+        <f>C12^(2/3)</f>
+        <v>2.8397020818385852</v>
+      </c>
+      <c r="F12">
+        <v>7.6020000000000003</v>
+      </c>
       <c r="G12">
-        <v>7.6020000000000003</v>
+        <f t="shared" si="1"/>
+        <v>7.532</v>
+      </c>
+      <c r="H12">
+        <v>4.6079999999999997</v>
       </c>
       <c r="I12">
-        <v>4.6079999999999997</v>
+        <f>H12^(2/3)</f>
+        <v>2.7691191749902235</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>5.2679999999999998</v>
       </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>7.6859999999999999</v>
+      </c>
       <c r="C13">
         <v>4.8468999999999998</v>
       </c>
+      <c r="D13">
+        <f>C13^(2/3)</f>
+        <v>2.8640199558190718</v>
+      </c>
+      <c r="F13">
+        <v>7.7080000000000002</v>
+      </c>
       <c r="G13">
-        <v>7.7080000000000002</v>
+        <f t="shared" si="1"/>
+        <v>7.6379999999999999</v>
+      </c>
+      <c r="H13">
+        <v>4.7054999999999998</v>
       </c>
       <c r="I13">
-        <v>4.7054999999999998</v>
+        <f>H13^(2/3)</f>
+        <v>2.808043633048583</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>5.4009999999999998</v>
       </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>7.819</v>
+      </c>
       <c r="C14">
         <v>4.9682000000000004</v>
       </c>
+      <c r="D14">
+        <f>C14^(2/3)</f>
+        <v>2.9116067240118975</v>
+      </c>
+      <c r="F14">
+        <v>7.8010000000000002</v>
+      </c>
       <c r="G14">
-        <v>7.8010000000000002</v>
-      </c>
-      <c r="I14" s="2">
+        <f t="shared" si="1"/>
+        <v>7.7309999999999999</v>
+      </c>
+      <c r="H14" s="2">
         <v>4.7930999999999999</v>
       </c>
+      <c r="I14">
+        <f>H14^(2/3)</f>
+        <v>2.8427870383087122</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>5.5910000000000002</v>
       </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>8.0090000000000003</v>
+      </c>
       <c r="C15">
         <v>5.1611000000000002</v>
       </c>
+      <c r="D15">
+        <f>C15^(2/3)</f>
+        <v>2.9864931017573073</v>
+      </c>
+      <c r="F15">
+        <v>7.9009999999999998</v>
+      </c>
       <c r="G15">
-        <v>7.9009999999999998</v>
+        <f t="shared" si="1"/>
+        <v>7.8309999999999995</v>
+      </c>
+      <c r="H15">
+        <v>4.8912000000000004</v>
       </c>
       <c r="I15">
-        <v>4.8912000000000004</v>
-      </c>
+        <f>H15^(2/3)</f>
+        <v>2.8814446455961154</v>
+      </c>
+      <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5.7039999999999997</v>
       </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>8.1219999999999999</v>
+      </c>
       <c r="C16">
         <v>5.2721</v>
       </c>
+      <c r="D16">
+        <f>C16^(2/3)</f>
+        <v>3.0291614845071742</v>
+      </c>
+      <c r="F16">
+        <v>8.0050000000000008</v>
+      </c>
       <c r="G16">
-        <v>8.0050000000000008</v>
+        <f t="shared" si="1"/>
+        <v>7.9350000000000005</v>
+      </c>
+      <c r="H16">
+        <v>4.9936999999999996</v>
       </c>
       <c r="I16">
-        <v>4.9936999999999996</v>
+        <f>H16^(2/3)</f>
+        <v>2.9215610472269788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>5.8049999999999997</v>
       </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>8.222999999999999</v>
+      </c>
       <c r="C17">
         <v>5.3661000000000003</v>
       </c>
+      <c r="D17">
+        <f>C17^(2/3)</f>
+        <v>3.065061369276326</v>
+      </c>
+      <c r="F17">
+        <v>8.1050000000000004</v>
+      </c>
       <c r="G17">
-        <v>8.1050000000000004</v>
+        <f t="shared" si="1"/>
+        <v>8.0350000000000001</v>
+      </c>
+      <c r="H17">
+        <v>5.0883000000000003</v>
       </c>
       <c r="I17">
-        <v>5.0883000000000003</v>
+        <f>H17^(2/3)</f>
+        <v>2.9583426353808333</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>5.9029999999999996</v>
       </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>8.3209999999999997</v>
+      </c>
       <c r="C18">
         <v>5.4691000000000001</v>
       </c>
+      <c r="D18">
+        <f>C18^(2/3)</f>
+        <v>3.1041586507243615</v>
+      </c>
+      <c r="F18">
+        <v>8.1869999999999994</v>
+      </c>
       <c r="G18">
-        <v>8.1869999999999994</v>
+        <f t="shared" si="1"/>
+        <v>8.1169999999999991</v>
+      </c>
+      <c r="H18">
+        <v>5.1684000000000001</v>
       </c>
       <c r="I18">
-        <v>5.1684000000000001</v>
+        <f>H18^(2/3)</f>
+        <v>2.989308556273552</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>6.0069999999999997</v>
       </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>8.4250000000000007</v>
+      </c>
       <c r="C19">
         <v>5.5701000000000001</v>
       </c>
+      <c r="D19">
+        <f>C19^(2/3)</f>
+        <v>3.1422591153980535</v>
+      </c>
+      <c r="F19">
+        <v>8.3070000000000004</v>
+      </c>
       <c r="G19">
-        <v>8.3070000000000004</v>
+        <f t="shared" si="1"/>
+        <v>8.2370000000000001</v>
+      </c>
+      <c r="H19">
+        <v>5.2830000000000004</v>
       </c>
       <c r="I19">
-        <v>5.2830000000000004</v>
+        <f>H19^(2/3)</f>
+        <v>3.0333352158208609</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>6.1040000000000001</v>
       </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>8.5220000000000002</v>
+      </c>
       <c r="C20">
         <v>5.6685999999999996</v>
       </c>
+      <c r="D20">
+        <f>C20^(2/3)</f>
+        <v>3.1791953042150967</v>
+      </c>
+      <c r="F20">
+        <v>8.4019999999999992</v>
+      </c>
       <c r="G20">
-        <v>8.4019999999999992</v>
+        <f t="shared" si="1"/>
+        <v>8.331999999999999</v>
+      </c>
+      <c r="H20">
+        <v>5.3780000000000001</v>
       </c>
       <c r="I20">
-        <v>5.3780000000000001</v>
+        <f>H20^(2/3)</f>
+        <v>3.0695911348458544</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6.2050000000000001</v>
       </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>8.6230000000000011</v>
+      </c>
       <c r="C21">
         <v>5.7691999999999997</v>
       </c>
+      <c r="D21">
+        <f>C21^(2/3)</f>
+        <v>3.2166987964014284</v>
+      </c>
+      <c r="F21">
+        <v>8.4979999999999993</v>
+      </c>
       <c r="G21">
-        <v>8.4979999999999993</v>
+        <f t="shared" si="1"/>
+        <v>8.427999999999999</v>
+      </c>
+      <c r="H21">
+        <v>5.4752000000000001</v>
       </c>
       <c r="I21">
-        <v>5.4752000000000001</v>
+        <f>H21^(2/3)</f>
+        <v>3.1064663856427717</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>6.3079999999999998</v>
       </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>8.7259999999999991</v>
+      </c>
       <c r="C22">
         <v>5.8657000000000004</v>
       </c>
+      <c r="D22">
+        <f>C22^(2/3)</f>
+        <v>3.2524694916181072</v>
+      </c>
+      <c r="F22">
+        <v>8.6059999999999999</v>
+      </c>
       <c r="G22">
-        <v>8.6059999999999999</v>
+        <f t="shared" si="1"/>
+        <v>8.5359999999999996</v>
+      </c>
+      <c r="H22">
+        <v>5.5861000000000001</v>
       </c>
       <c r="I22">
-        <v>5.5861000000000001</v>
+        <f>H22^(2/3)</f>
+        <v>3.1482736222576038</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>6.4020000000000001</v>
       </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>8.82</v>
+      </c>
       <c r="C23">
         <v>5.9695</v>
       </c>
+      <c r="D23">
+        <f>C23^(2/3)</f>
+        <v>3.2907278825448167</v>
+      </c>
+      <c r="F23">
+        <v>8.7040000000000006</v>
+      </c>
       <c r="G23">
-        <v>8.7040000000000006</v>
+        <f t="shared" si="1"/>
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="H23">
+        <v>5.6864999999999997</v>
       </c>
       <c r="I23">
-        <v>5.6864999999999997</v>
+        <f>H23^(2/3)</f>
+        <v>3.1858845147131558</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>6.508</v>
       </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>8.9260000000000002</v>
+      </c>
       <c r="C24">
         <v>6.0784000000000002</v>
       </c>
+      <c r="D24">
+        <f>C24^(2/3)</f>
+        <v>3.3306284246566542</v>
+      </c>
+      <c r="F24">
+        <v>8.8030000000000008</v>
+      </c>
       <c r="G24">
-        <v>8.8030000000000008</v>
+        <f t="shared" si="1"/>
+        <v>8.7330000000000005</v>
+      </c>
+      <c r="H24">
+        <v>5.7862999999999998</v>
       </c>
       <c r="I24">
-        <v>5.7862999999999998</v>
+        <f>H24^(2/3)</f>
+        <v>3.2230518912575952</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>6.7560000000000002</v>
       </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>9.1739999999999995</v>
+      </c>
       <c r="C25">
         <v>6.2938000000000001</v>
       </c>
+      <c r="D25">
+        <f>C25^(2/3)</f>
+        <v>3.4088557616907988</v>
+      </c>
+      <c r="F25">
+        <v>8.9</v>
+      </c>
       <c r="G25">
-        <v>8.9</v>
+        <f t="shared" si="1"/>
+        <v>8.83</v>
+      </c>
+      <c r="H25">
+        <v>5.8887</v>
       </c>
       <c r="I25">
-        <v>5.8887</v>
+        <f>H25^(2/3)</f>
+        <v>3.2609661184273255</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>6.8</v>
       </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>9.218</v>
+      </c>
       <c r="C26">
         <v>6.3414999999999999</v>
       </c>
+      <c r="D26">
+        <f>C26^(2/3)</f>
+        <v>3.4260576341926599</v>
+      </c>
+      <c r="F26">
+        <v>9.01</v>
+      </c>
       <c r="G26">
-        <v>9.01</v>
+        <f t="shared" si="1"/>
+        <v>8.94</v>
+      </c>
+      <c r="H26">
+        <v>5.9970999999999997</v>
       </c>
       <c r="I26">
-        <v>5.9970999999999997</v>
+        <f>H26^(2/3)</f>
+        <v>3.3008632088330221</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>7.0030000000000001</v>
       </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>9.4209999999999994</v>
+      </c>
       <c r="C27">
         <v>6.5552000000000001</v>
       </c>
+      <c r="D27">
+        <f>C27^(2/3)</f>
+        <v>3.5026007075855841</v>
+      </c>
+      <c r="F27">
+        <v>9.1</v>
+      </c>
       <c r="G27">
-        <v>9.1</v>
+        <f t="shared" si="1"/>
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="H27">
+        <v>6.0814000000000004</v>
       </c>
       <c r="I27">
-        <v>6.0814000000000004</v>
+        <f>H27^(2/3)</f>
+        <v>3.331724224377723</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>7.2409999999999997</v>
       </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>9.6589999999999989</v>
+      </c>
       <c r="C28">
         <v>6.7960000000000003</v>
       </c>
+      <c r="D28">
+        <f>C28^(2/3)</f>
+        <v>3.5878607584374302</v>
+      </c>
+      <c r="F28">
+        <v>9.2050000000000001</v>
+      </c>
       <c r="G28">
-        <v>9.2050000000000001</v>
+        <f t="shared" si="1"/>
+        <v>9.1349999999999998</v>
+      </c>
+      <c r="H28">
+        <v>6.1881000000000004</v>
       </c>
       <c r="I28">
-        <v>6.1881000000000004</v>
+        <f>H28^(2/3)</f>
+        <v>3.3705818837497095</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>7.5119999999999996</v>
       </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>9.93</v>
+      </c>
       <c r="C29">
         <v>7.0845000000000002</v>
       </c>
+      <c r="D29">
+        <f>C29^(2/3)</f>
+        <v>3.6886954760292237</v>
+      </c>
+      <c r="F29">
+        <v>9.3070000000000004</v>
+      </c>
       <c r="G29">
-        <v>9.3070000000000004</v>
+        <f t="shared" si="1"/>
+        <v>9.2370000000000001</v>
+      </c>
+      <c r="H29">
+        <v>6.2964000000000002</v>
       </c>
       <c r="I29">
-        <v>6.2964000000000002</v>
+        <f>H29^(2/3)</f>
+        <v>3.4097945072145222</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>7.7560000000000002</v>
       </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>10.173999999999999</v>
+      </c>
       <c r="C30">
         <v>7.3422000000000001</v>
       </c>
+      <c r="D30">
+        <f>C30^(2/3)</f>
+        <v>3.777613081130867</v>
+      </c>
+      <c r="F30">
+        <v>9.3889999999999993</v>
+      </c>
       <c r="G30">
-        <v>9.3889999999999993</v>
+        <f t="shared" si="1"/>
+        <v>9.3189999999999991</v>
+      </c>
+      <c r="H30">
+        <v>6.3804999999999996</v>
       </c>
       <c r="I30">
-        <v>6.3804999999999996</v>
+        <f>H30^(2/3)</f>
+        <v>3.4400900308260653</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>8.0489999999999995</v>
       </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>10.466999999999999</v>
+      </c>
       <c r="C31">
         <v>7.6543999999999999</v>
       </c>
+      <c r="D31">
+        <f>C31^(2/3)</f>
+        <v>3.8839542215049447</v>
+      </c>
+      <c r="F31">
+        <v>9.5030000000000001</v>
+      </c>
       <c r="G31">
-        <v>9.5030000000000001</v>
+        <f t="shared" si="1"/>
+        <v>9.4329999999999998</v>
+      </c>
+      <c r="H31">
+        <v>6.5003000000000002</v>
       </c>
       <c r="I31">
-        <v>6.5003000000000002</v>
+        <f>H31^(2/3)</f>
+        <v>3.4830170495749351</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>8.5370000000000008</v>
       </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>10.955000000000002</v>
+      </c>
       <c r="C32">
         <v>8.2340999999999998</v>
       </c>
+      <c r="D32">
+        <f>C32^(2/3)</f>
+        <v>4.0776576249797785</v>
+      </c>
+      <c r="F32">
+        <v>9.6620000000000008</v>
+      </c>
       <c r="G32">
-        <v>9.6620000000000008</v>
+        <f t="shared" si="1"/>
+        <v>9.5920000000000005</v>
+      </c>
+      <c r="H32">
+        <v>6.6643999999999997</v>
       </c>
       <c r="I32">
-        <v>6.6643999999999997</v>
+        <f>H32^(2/3)</f>
+        <v>3.5413922875186925</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>9.0649999999999995</v>
       </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>11.483000000000001</v>
+      </c>
       <c r="C33">
         <v>9.0761000000000003</v>
       </c>
+      <c r="D33">
+        <f>C33^(2/3)</f>
+        <v>4.3511045102989634</v>
+      </c>
+      <c r="F33">
+        <v>9.7550000000000008</v>
+      </c>
       <c r="G33">
-        <v>9.7550000000000008</v>
+        <f t="shared" si="1"/>
+        <v>9.6850000000000005</v>
+      </c>
+      <c r="H33">
+        <v>6.7628000000000004</v>
       </c>
       <c r="I33">
-        <v>6.7628000000000004</v>
+        <f>H33^(2/3)</f>
+        <v>3.5761662151836187</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>9.5489999999999995</v>
       </c>
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>11.966999999999999</v>
+      </c>
       <c r="C34">
         <v>10.1776</v>
       </c>
+      <c r="D34">
+        <f>C34^(2/3)</f>
+        <v>4.6963838452932141</v>
+      </c>
+      <c r="F34">
+        <v>10.012</v>
+      </c>
       <c r="G34">
-        <v>10.012</v>
+        <f t="shared" si="1"/>
+        <v>9.9420000000000002</v>
+      </c>
+      <c r="H34">
+        <v>7.0326000000000004</v>
       </c>
       <c r="I34">
-        <v>7.0326000000000004</v>
+        <f>H34^(2/3)</f>
+        <v>3.670658182680941</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>10.076000000000001</v>
       </c>
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>12.494</v>
+      </c>
       <c r="C35">
         <v>12.156000000000001</v>
       </c>
+      <c r="D35">
+        <f>C35^(2/3)</f>
+        <v>5.2868111135782048</v>
+      </c>
+      <c r="F35">
+        <v>10.27</v>
+      </c>
       <c r="G35">
-        <v>10.27</v>
+        <f t="shared" si="1"/>
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H35">
+        <v>7.3014000000000001</v>
       </c>
       <c r="I35">
-        <v>7.3014000000000001</v>
+        <f>H35^(2/3)</f>
+        <v>3.7636054982797789</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>10.494999999999999</v>
       </c>
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>12.913</v>
+      </c>
       <c r="C36">
         <v>14.525</v>
       </c>
+      <c r="D36">
+        <f>C36^(2/3)</f>
+        <v>5.9531125583287441</v>
+      </c>
+      <c r="F36">
+        <v>10.502000000000001</v>
+      </c>
       <c r="G36">
-        <v>10.502000000000001</v>
+        <f t="shared" si="1"/>
+        <v>10.432</v>
+      </c>
+      <c r="H36">
+        <v>7.5517000000000003</v>
       </c>
       <c r="I36">
-        <v>7.5517000000000003</v>
+        <f>H36^(2/3)</f>
+        <v>3.8491350818076762</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>10.763</v>
       </c>
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>13.181000000000001</v>
+      </c>
       <c r="C37">
         <v>16.954999999999998</v>
       </c>
+      <c r="D37">
+        <f>C37^(2/3)</f>
+        <v>6.5998165314778401</v>
+      </c>
+      <c r="F37">
+        <v>10.775</v>
+      </c>
       <c r="G37">
-        <v>10.775</v>
+        <f t="shared" si="1"/>
+        <v>10.705</v>
+      </c>
+      <c r="H37">
+        <v>7.8498999999999999</v>
       </c>
       <c r="I37">
-        <v>7.8498999999999999</v>
+        <f>H37^(2/3)</f>
+        <v>3.9498088891140322</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>11.026</v>
       </c>
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>13.443999999999999</v>
+      </c>
       <c r="C38">
         <v>21.56</v>
       </c>
+      <c r="D38">
+        <f>C38^(2/3)</f>
+        <v>7.7463866610619565</v>
+      </c>
+      <c r="F38">
+        <v>11.004</v>
+      </c>
       <c r="G38">
-        <v>11.004</v>
+        <f t="shared" si="1"/>
+        <v>10.933999999999999</v>
+      </c>
+      <c r="H38">
+        <v>8.1267999999999994</v>
       </c>
       <c r="I38">
-        <v>8.1267999999999994</v>
+        <f>H38^(2/3)</f>
+        <v>4.0421557915694759</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>11.138999999999999</v>
       </c>
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>13.556999999999999</v>
+      </c>
       <c r="C39">
         <v>47.502000000000002</v>
       </c>
+      <c r="D39">
+        <f>C39^(2/3)</f>
+        <v>13.116196977075232</v>
+      </c>
+      <c r="F39">
+        <v>11.488</v>
+      </c>
       <c r="G39">
-        <v>11.488</v>
+        <f t="shared" si="1"/>
+        <v>11.417999999999999</v>
+      </c>
+      <c r="H39">
+        <v>8.8444000000000003</v>
       </c>
       <c r="I39">
-        <v>8.8444000000000003</v>
+        <f>H39^(2/3)</f>
+        <v>4.2767341114769204</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F40">
+        <v>12.01</v>
+      </c>
       <c r="G40">
-        <v>12.01</v>
+        <f t="shared" si="1"/>
+        <v>11.94</v>
+      </c>
+      <c r="H40">
+        <v>9.9</v>
       </c>
       <c r="I40">
-        <v>9.9</v>
+        <f>H40^(2/3)</f>
+        <v>4.6105931042857726</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F41">
+        <v>12.505000000000001</v>
+      </c>
       <c r="G41">
-        <v>12.505000000000001</v>
+        <f t="shared" si="1"/>
+        <v>12.435</v>
+      </c>
+      <c r="H41">
+        <v>11.555</v>
       </c>
       <c r="I41">
-        <v>11.555</v>
+        <f>H41^(2/3)</f>
+        <v>5.1110873104156678</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F42">
+        <v>12.756</v>
+      </c>
       <c r="G42">
-        <v>12.756</v>
+        <f t="shared" si="1"/>
+        <v>12.686</v>
+      </c>
+      <c r="H42">
+        <v>12.888</v>
       </c>
       <c r="I42">
-        <v>12.888</v>
+        <f>H42^(2/3)</f>
+        <v>5.4969740269448382</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F43">
+        <v>13.004</v>
+      </c>
       <c r="G43">
-        <v>13.004</v>
+        <f t="shared" si="1"/>
+        <v>12.933999999999999</v>
+      </c>
+      <c r="H43">
+        <v>14.4</v>
       </c>
       <c r="I43">
-        <v>14.4</v>
+        <f>H43^(2/3)</f>
+        <v>5.9189089783931275</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F44">
+        <v>13.297000000000001</v>
+      </c>
       <c r="G44">
-        <v>13.297000000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.227</v>
+      </c>
+      <c r="H44">
+        <v>17.317</v>
       </c>
       <c r="I44">
-        <v>17.317</v>
+        <f>H44^(2/3)</f>
+        <v>6.6934255624657863</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F45">
+        <v>13.512</v>
+      </c>
       <c r="G45">
-        <v>13.512</v>
+        <f t="shared" si="1"/>
+        <v>13.442</v>
+      </c>
+      <c r="H45">
+        <v>21.3</v>
       </c>
       <c r="I45">
-        <v>21.3</v>
+        <f>H45^(2/3)</f>
+        <v>7.6839831226550981</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="F46">
+        <v>13.742000000000001</v>
+      </c>
       <c r="G46">
-        <v>13.742000000000001</v>
+        <f t="shared" si="1"/>
+        <v>13.672000000000001</v>
+      </c>
+      <c r="H46">
+        <v>24.617000000000001</v>
       </c>
       <c r="I46">
-        <v>24.617000000000001</v>
+        <f>H46^(2/3)</f>
+        <v>8.4623324657175534</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K48">
+        <v>12.5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView topLeftCell="D12" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="10.1328125" customWidth="1"/>
+    <col min="2" max="2" width="19.265625" customWidth="1"/>
+    <col min="3" max="4" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
+    <col min="8" max="8" width="13.1328125" customWidth="1"/>
+    <col min="9" max="9" width="12.53125" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1"/>
+    <col min="14" max="14" width="10.06640625" customWidth="1"/>
+    <col min="18" max="18" width="18.86328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A1" s="4">
+        <v>365</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3">
+        <v>546</v>
+      </c>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="O1" s="3">
+        <v>492</v>
+      </c>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
+        <v>0</v>
+      </c>
+      <c r="P2" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S2" t="s">
+        <v>10</v>
+      </c>
+      <c r="T2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C3">
+        <v>12.776</v>
+      </c>
+      <c r="D3">
+        <v>41.7</v>
+      </c>
+      <c r="E3">
+        <f>A3-2.418</f>
+        <v>-1.4180000000000001</v>
+      </c>
+      <c r="F3">
+        <f>C3-2.418</f>
+        <v>10.358000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J3">
+        <v>13.702</v>
+      </c>
+      <c r="K3">
+        <v>28.7</v>
+      </c>
+      <c r="L3">
+        <f>H3-2.418</f>
+        <v>-1.4180000000000001</v>
+      </c>
+      <c r="M3">
+        <f>J3-2.418</f>
+        <v>11.283999999999999</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>0.65</v>
+      </c>
+      <c r="Q3">
+        <v>13.454000000000001</v>
+      </c>
+      <c r="R3">
+        <v>9.65</v>
+      </c>
+      <c r="S3">
+        <f>O3-2.418</f>
+        <v>-1.4180000000000001</v>
+      </c>
+      <c r="T3">
+        <f>Q3-2.418</f>
+        <v>11.036000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C4">
+        <v>12.58</v>
+      </c>
+      <c r="D4">
+        <v>27.2</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E24" si="0">A4-2.418</f>
+        <v>-0.41800000000000015</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F24" si="1">C4-2.418</f>
+        <v>10.161999999999999</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J4">
+        <v>12.851000000000001</v>
+      </c>
+      <c r="K4">
+        <v>9.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L25" si="2">H4-2.418</f>
+        <v>-0.41800000000000015</v>
+      </c>
+      <c r="M4">
+        <f t="shared" ref="M4:M25" si="3">J4-2.418</f>
+        <v>10.433</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+      <c r="P4">
+        <v>0.65</v>
+      </c>
+      <c r="Q4">
+        <v>13.032</v>
+      </c>
+      <c r="R4">
+        <v>6.85</v>
+      </c>
+      <c r="S4">
+        <f t="shared" ref="S4:S21" si="4">O4-2.418</f>
+        <v>-0.41800000000000015</v>
+      </c>
+      <c r="T4">
+        <f t="shared" ref="T4:T21" si="5">Q4-2.418</f>
+        <v>10.614000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C5">
+        <v>12.51</v>
+      </c>
+      <c r="D5">
+        <v>21.6</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="0"/>
+        <v>0.58199999999999985</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>10.091999999999999</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J5">
+        <v>12.646000000000001</v>
+      </c>
+      <c r="K5">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="2"/>
+        <v>0.58199999999999985</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="3"/>
+        <v>10.228000000000002</v>
+      </c>
+      <c r="O5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>0.65</v>
+      </c>
+      <c r="Q5">
+        <v>12.975</v>
+      </c>
+      <c r="R5">
+        <v>6.56</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0.58199999999999985</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="5"/>
+        <v>10.556999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C6">
+        <v>12.422000000000001</v>
+      </c>
+      <c r="D6">
+        <v>17.05</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>1.5819999999999999</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>10.004000000000001</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J6">
+        <v>12.3</v>
+      </c>
+      <c r="K6">
+        <v>6.24</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="2"/>
+        <v>1.5819999999999999</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="3"/>
+        <v>9.8820000000000014</v>
+      </c>
+      <c r="O6">
+        <v>4</v>
+      </c>
+      <c r="P6">
+        <v>0.65</v>
+      </c>
+      <c r="Q6">
+        <v>12.657999999999999</v>
+      </c>
+      <c r="R6">
+        <v>4.07</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="4"/>
+        <v>1.5819999999999999</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>10.239999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C7">
+        <v>12.349</v>
+      </c>
+      <c r="D7">
+        <v>13.95</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>9.9310000000000009</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J7">
+        <v>11.791</v>
+      </c>
+      <c r="K7">
+        <v>4.7</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>9.3730000000000011</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0.65</v>
+      </c>
+      <c r="Q7">
+        <v>12.241</v>
+      </c>
+      <c r="R7">
+        <v>1.7</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="4"/>
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="5"/>
+        <v>9.8230000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C8">
+        <v>12.236000000000001</v>
+      </c>
+      <c r="D8">
+        <v>9.25</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>9.8180000000000014</v>
+      </c>
+      <c r="H8">
+        <v>6</v>
+      </c>
+      <c r="I8">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J8">
+        <v>11.478</v>
+      </c>
+      <c r="K8">
+        <v>4.25</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
+        <v>9.0599999999999987</v>
+      </c>
+      <c r="O8">
+        <v>6</v>
+      </c>
+      <c r="P8">
+        <v>0.65</v>
+      </c>
+      <c r="Q8">
+        <v>12.006</v>
+      </c>
+      <c r="R8">
+        <v>1.3</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="4"/>
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="5"/>
+        <v>9.588000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C9">
+        <v>11.726000000000001</v>
+      </c>
+      <c r="D9">
+        <v>4.16</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>9.3079999999999998</v>
+      </c>
+      <c r="H9">
+        <v>7</v>
+      </c>
+      <c r="I9">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="J9">
+        <v>10.962999999999999</v>
+      </c>
+      <c r="K9">
+        <v>3.7</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="2"/>
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="3"/>
+        <v>8.5449999999999982</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>0.65</v>
+      </c>
+      <c r="Q9">
+        <v>11.487</v>
+      </c>
+      <c r="R9">
+        <v>1.03</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="4"/>
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="5"/>
+        <v>9.0689999999999991</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C10">
+        <v>11.202999999999999</v>
+      </c>
+      <c r="D10">
+        <v>2.15</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>8.7850000000000001</v>
+      </c>
+      <c r="H10">
+        <v>7.5570000000000004</v>
+      </c>
+      <c r="I10">
+        <v>0.6</v>
+      </c>
+      <c r="J10">
+        <v>10.619</v>
+      </c>
+      <c r="K10">
+        <v>3.3</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="2"/>
+        <v>5.1390000000000002</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="3"/>
+        <v>8.2010000000000005</v>
+      </c>
+      <c r="O10">
+        <v>8</v>
+      </c>
+      <c r="P10">
+        <v>0.65</v>
+      </c>
+      <c r="Q10">
+        <v>10.516999999999999</v>
+      </c>
+      <c r="R10">
+        <v>0.76</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="4"/>
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="5"/>
+        <v>8.0990000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9.0180000000000007</v>
+      </c>
+      <c r="B11">
+        <v>0.6</v>
+      </c>
+      <c r="C11">
+        <v>10.981</v>
+      </c>
+      <c r="D11">
+        <v>1.8</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>6.6000000000000005</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>8.5629999999999988</v>
+      </c>
+      <c r="H11">
+        <v>7.9850000000000003</v>
+      </c>
+      <c r="I11">
+        <v>0.6</v>
+      </c>
+      <c r="J11">
+        <v>10.134</v>
+      </c>
+      <c r="K11">
+        <v>2.7</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="2"/>
+        <v>5.5670000000000002</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="3"/>
+        <v>7.7160000000000002</v>
+      </c>
+      <c r="O11">
+        <v>9</v>
+      </c>
+      <c r="P11">
+        <v>0.65</v>
+      </c>
+      <c r="Q11">
+        <v>9</v>
+      </c>
+      <c r="R11">
+        <v>0.66</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="4"/>
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="5"/>
+        <v>6.5819999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>9.5030000000000001</v>
+      </c>
+      <c r="B12">
+        <v>0.63</v>
+      </c>
+      <c r="C12">
+        <v>10.407999999999999</v>
+      </c>
+      <c r="D12">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>7.085</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>7.9899999999999993</v>
+      </c>
+      <c r="H12">
+        <v>8.5039999999999996</v>
+      </c>
+      <c r="I12">
+        <v>0.73</v>
+      </c>
+      <c r="J12">
+        <v>9.673</v>
+      </c>
+      <c r="K12">
+        <v>2.06</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="2"/>
+        <v>6.0859999999999994</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="3"/>
+        <v>7.2549999999999999</v>
+      </c>
+      <c r="O12">
+        <v>10</v>
+      </c>
+      <c r="P12">
+        <v>0.65</v>
+      </c>
+      <c r="Q12">
+        <v>8.5</v>
+      </c>
+      <c r="R12">
+        <v>0.66</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="4"/>
+        <v>7.5819999999999999</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="5"/>
+        <v>6.0819999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>10.032</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13">
+        <v>9.6059999999999999</v>
+      </c>
+      <c r="D13">
+        <v>0.7</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>7.6139999999999999</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>7.1879999999999997</v>
+      </c>
+      <c r="H13">
+        <v>9.2579999999999991</v>
+      </c>
+      <c r="I13">
+        <v>1.35</v>
+      </c>
+      <c r="J13">
+        <v>9.1560000000000006</v>
+      </c>
+      <c r="K13">
+        <v>1.26</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="2"/>
+        <v>6.839999999999999</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="3"/>
+        <v>6.7380000000000004</v>
+      </c>
+      <c r="O13">
+        <v>10.499000000000001</v>
+      </c>
+      <c r="P13">
+        <v>0.75</v>
+      </c>
+      <c r="Q13">
+        <v>8</v>
+      </c>
+      <c r="R13">
+        <v>0.66</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="4"/>
+        <v>8.0809999999999995</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="5"/>
+        <v>5.5819999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>10.535</v>
+      </c>
+      <c r="B14">
+        <v>1.27</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>0.65</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>8.1170000000000009</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="H14">
+        <v>9.9429999999999996</v>
+      </c>
+      <c r="I14">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="J14">
+        <v>8.4740000000000002</v>
+      </c>
+      <c r="K14">
+        <v>0.78</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="2"/>
+        <v>7.5249999999999995</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="3"/>
+        <v>6.056</v>
+      </c>
+      <c r="O14">
+        <v>11.065</v>
+      </c>
+      <c r="P14">
+        <v>0.88</v>
+      </c>
+      <c r="Q14">
+        <v>7.5</v>
+      </c>
+      <c r="R14">
+        <v>0.66</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="4"/>
+        <v>8.6469999999999985</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="5"/>
+        <v>5.0819999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>11.052</v>
+      </c>
+      <c r="B15">
+        <v>1.97</v>
+      </c>
+      <c r="C15">
+        <v>9</v>
+      </c>
+      <c r="D15">
+        <v>0.65</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="H15">
+        <v>10.449</v>
+      </c>
+      <c r="I15">
+        <v>3.05</v>
+      </c>
+      <c r="J15">
+        <v>7.9550000000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.66</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="2"/>
+        <v>8.0309999999999988</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="3"/>
+        <v>5.5369999999999999</v>
+      </c>
+      <c r="O15">
+        <v>11.984999999999999</v>
+      </c>
+      <c r="P15">
+        <v>1.33</v>
+      </c>
+      <c r="Q15">
+        <v>7</v>
+      </c>
+      <c r="R15">
+        <v>0.66</v>
+      </c>
+      <c r="S15">
+        <f t="shared" si="4"/>
+        <v>9.5670000000000002</v>
+      </c>
+      <c r="T15">
+        <f t="shared" si="5"/>
+        <v>4.5819999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>11.509</v>
+      </c>
+      <c r="B16">
+        <v>2.94</v>
+      </c>
+      <c r="C16">
+        <v>9</v>
+      </c>
+      <c r="D16">
+        <v>0.65</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>9.0910000000000011</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>6.5819999999999999</v>
+      </c>
+      <c r="H16">
+        <v>11.167</v>
+      </c>
+      <c r="I16" s="5">
+        <v>3.9</v>
+      </c>
+      <c r="J16">
+        <v>6.859</v>
+      </c>
+      <c r="K16">
+        <v>0.64</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="2"/>
+        <v>8.7489999999999988</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="3"/>
+        <v>4.4409999999999998</v>
+      </c>
+      <c r="O16">
+        <v>12.608000000000001</v>
+      </c>
+      <c r="P16">
+        <v>3.8</v>
+      </c>
+      <c r="Q16">
+        <v>6.5</v>
+      </c>
+      <c r="R16">
+        <v>0.66</v>
+      </c>
+      <c r="S16">
+        <f t="shared" si="4"/>
+        <v>10.190000000000001</v>
+      </c>
+      <c r="T16">
+        <f t="shared" si="5"/>
+        <v>4.0819999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>12.138999999999999</v>
+      </c>
+      <c r="B17">
+        <v>5.13</v>
+      </c>
+      <c r="C17">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>0.65</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>9.7210000000000001</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>5.5819999999999999</v>
+      </c>
+      <c r="H17">
+        <v>11.39</v>
+      </c>
+      <c r="I17">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J17">
+        <v>6.11</v>
+      </c>
+      <c r="K17">
+        <v>0.65</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="2"/>
+        <v>8.9720000000000013</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="3"/>
+        <v>3.6920000000000002</v>
+      </c>
+      <c r="O17">
+        <v>12.773999999999999</v>
+      </c>
+      <c r="P17">
+        <v>5.07</v>
+      </c>
+      <c r="Q17">
+        <v>6</v>
+      </c>
+      <c r="R17">
+        <v>0.66</v>
+      </c>
+      <c r="S17">
+        <f t="shared" si="4"/>
+        <v>10.355999999999998</v>
+      </c>
+      <c r="T17">
+        <f t="shared" si="5"/>
+        <v>3.5819999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>12.414</v>
+      </c>
+      <c r="B18">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="C18">
+        <v>7</v>
+      </c>
+      <c r="D18">
+        <v>0.65</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>9.9959999999999987</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>4.5819999999999999</v>
+      </c>
+      <c r="H18">
+        <v>11.538</v>
+      </c>
+      <c r="I18">
+        <v>4.3</v>
+      </c>
+      <c r="J18">
+        <v>5.5</v>
+      </c>
+      <c r="K18">
+        <v>0.65</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="2"/>
+        <v>9.120000000000001</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="3"/>
+        <v>3.0819999999999999</v>
+      </c>
+      <c r="O18">
+        <v>13.215</v>
+      </c>
+      <c r="P18">
+        <v>8.4499999999999993</v>
+      </c>
+      <c r="Q18">
+        <v>5</v>
+      </c>
+      <c r="R18">
+        <v>0.66</v>
+      </c>
+      <c r="S18">
+        <f t="shared" si="4"/>
+        <v>10.797000000000001</v>
+      </c>
+      <c r="T18">
+        <f t="shared" si="5"/>
+        <v>2.5819999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>13.07</v>
+      </c>
+      <c r="B19">
+        <v>15.42</v>
+      </c>
+      <c r="C19">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>0.65</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>10.652000000000001</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>3.5819999999999999</v>
+      </c>
+      <c r="H19">
+        <v>12.065</v>
+      </c>
+      <c r="I19">
+        <v>5.2</v>
+      </c>
+      <c r="J19">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="K19">
+        <v>0.65</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="2"/>
+        <v>9.6469999999999985</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="3"/>
+        <v>2.4719999999999995</v>
+      </c>
+      <c r="O19">
+        <v>13.42</v>
+      </c>
+      <c r="P19">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="Q19">
+        <v>4</v>
+      </c>
+      <c r="R19">
+        <v>0.66</v>
+      </c>
+      <c r="S19">
+        <f t="shared" si="4"/>
+        <v>11.001999999999999</v>
+      </c>
+      <c r="T19">
+        <f t="shared" si="5"/>
+        <v>1.5819999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>13.217000000000001</v>
+      </c>
+      <c r="B20">
+        <v>21.6</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>0.65</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>10.798999999999999</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>2.5819999999999999</v>
+      </c>
+      <c r="H20">
+        <v>12.361000000000001</v>
+      </c>
+      <c r="I20">
+        <v>6.6</v>
+      </c>
+      <c r="J20">
+        <v>4.28</v>
+      </c>
+      <c r="K20">
+        <v>0.65</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="2"/>
+        <v>9.9430000000000014</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="3"/>
+        <v>1.8620000000000001</v>
+      </c>
+      <c r="O20">
+        <v>13.529</v>
+      </c>
+      <c r="P20">
+        <v>10.53</v>
+      </c>
+      <c r="Q20">
+        <v>3</v>
+      </c>
+      <c r="R20">
+        <v>0.66</v>
+      </c>
+      <c r="S20">
+        <f t="shared" si="4"/>
+        <v>11.111000000000001</v>
+      </c>
+      <c r="T20">
+        <f t="shared" si="5"/>
+        <v>0.58199999999999985</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>13.478</v>
+      </c>
+      <c r="B21">
+        <v>25.6</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21">
+        <v>0.65</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>11.059999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>1.5819999999999999</v>
+      </c>
+      <c r="H21">
+        <v>12.507</v>
+      </c>
+      <c r="I21">
+        <v>7.5</v>
+      </c>
+      <c r="J21">
+        <v>3.67</v>
+      </c>
+      <c r="K21">
+        <v>0.65</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="2"/>
+        <v>10.088999999999999</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="3"/>
+        <v>1.2519999999999998</v>
+      </c>
+      <c r="O21">
+        <v>13.547000000000001</v>
+      </c>
+      <c r="P21">
+        <v>21.6</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>0.66</v>
+      </c>
+      <c r="S21">
+        <f t="shared" si="4"/>
+        <v>11.129000000000001</v>
+      </c>
+      <c r="T21">
+        <f t="shared" si="5"/>
+        <v>-0.41800000000000015</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>13.647</v>
+      </c>
+      <c r="B22">
+        <v>36.5</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>0.65</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>11.228999999999999</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0.58199999999999985</v>
+      </c>
+      <c r="H22">
+        <v>12.836</v>
+      </c>
+      <c r="I22">
+        <v>9.4</v>
+      </c>
+      <c r="J22">
+        <v>3.06</v>
+      </c>
+      <c r="K22">
+        <v>0.65</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="2"/>
+        <v>10.417999999999999</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="3"/>
+        <v>0.6419999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>13.98</v>
+      </c>
+      <c r="B23">
+        <v>93.4</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>0.65</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="0"/>
+        <v>11.562000000000001</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>-0.41800000000000015</v>
+      </c>
+      <c r="H23">
+        <v>13.087999999999999</v>
+      </c>
+      <c r="I23">
+        <v>11.1</v>
+      </c>
+      <c r="J23">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="K23">
+        <v>0.65</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="2"/>
+        <v>10.669999999999998</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="3"/>
+        <v>3.2000000000000028E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>14.5</v>
+      </c>
+      <c r="B24">
+        <v>161.30000000000001</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24">
+        <v>0.65</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="0"/>
+        <v>12.082000000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>-1.4180000000000001</v>
+      </c>
+      <c r="H24">
+        <v>13.352</v>
+      </c>
+      <c r="I24">
+        <v>13.5</v>
+      </c>
+      <c r="J24">
+        <v>1.84</v>
+      </c>
+      <c r="K24">
+        <v>0.65</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="2"/>
+        <v>10.934000000000001</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="3"/>
+        <v>-0.57800000000000007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.45">
+      <c r="H25">
+        <v>13.669</v>
+      </c>
+      <c r="I25">
+        <v>30.6</v>
+      </c>
+      <c r="J25">
+        <v>1.23</v>
+      </c>
+      <c r="K25">
+        <v>0.65</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="2"/>
+        <v>11.251000000000001</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="3"/>
+        <v>-1.1880000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.53125" customWidth="1"/>
+    <col min="2" max="2" width="16.86328125" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.59765625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="16.265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A2" s="4">
+        <v>365</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>11.052</v>
+      </c>
+      <c r="B4">
+        <f>A4-2.418</f>
+        <v>8.6340000000000003</v>
+      </c>
+      <c r="C4">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>11.509</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ref="B5:B11" si="0">A5-2.418</f>
+        <v>9.0910000000000011</v>
+      </c>
+      <c r="C5">
+        <v>2.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>12.138999999999999</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>9.7210000000000001</v>
+      </c>
+      <c r="C6">
+        <v>5.13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>12.414</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>9.9959999999999987</v>
+      </c>
+      <c r="C7">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>13.07</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>10.652000000000001</v>
+      </c>
+      <c r="C8">
+        <v>15.42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>13.217000000000001</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>10.798999999999999</v>
+      </c>
+      <c r="C9">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>13.478</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>11.059999999999999</v>
+      </c>
+      <c r="C10">
+        <v>25.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>13.647</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>11.228999999999999</v>
+      </c>
+      <c r="C11">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" s="4">
+        <v>492</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>11.984999999999999</v>
+      </c>
+      <c r="B17">
+        <f>A17-2.418</f>
+        <v>9.5670000000000002</v>
+      </c>
+      <c r="C17">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>12.608000000000001</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:B24" si="1">A18-2.418</f>
+        <v>10.190000000000001</v>
+      </c>
+      <c r="C18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>12.773999999999999</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="1"/>
+        <v>10.355999999999998</v>
+      </c>
+      <c r="C19">
+        <v>5.07</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>13.215</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="1"/>
+        <v>10.797000000000001</v>
+      </c>
+      <c r="C20">
+        <v>8.4499999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>13.42</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="1"/>
+        <v>11.001999999999999</v>
+      </c>
+      <c r="C21">
+        <v>9.8699999999999992</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>13.529</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="1"/>
+        <v>11.111000000000001</v>
+      </c>
+      <c r="C22">
+        <v>10.53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A26" s="4">
+        <v>546</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>11</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>11.167</v>
+      </c>
+      <c r="B28">
+        <f>A28-2.418</f>
+        <v>8.7489999999999988</v>
+      </c>
+      <c r="C28" s="5">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>11.39</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ref="B29:B35" si="2">A29-2.418</f>
+        <v>8.9720000000000013</v>
+      </c>
+      <c r="C29" s="5">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>11.538</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="2"/>
+        <v>9.120000000000001</v>
+      </c>
+      <c r="C30">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>12.065</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="2"/>
+        <v>9.6469999999999985</v>
+      </c>
+      <c r="C31">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>12.361000000000001</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="2"/>
+        <v>9.9430000000000014</v>
+      </c>
+      <c r="C32">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>12.507</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="2"/>
+        <v>10.088999999999999</v>
+      </c>
+      <c r="C33">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>12.836</v>
+      </c>
+      <c r="B34">
+        <f t="shared" si="2"/>
+        <v>10.417999999999999</v>
+      </c>
+      <c r="C34">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>13.087999999999999</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="2"/>
+        <v>10.669999999999998</v>
+      </c>
+      <c r="C35">
+        <v>11.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A26:C26"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Ionization of Mercury/IonizationofMercury.xlsx
+++ b/Ionization of Mercury/IonizationofMercury.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4290" windowHeight="5415" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4290" windowHeight="5415" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -61,19 +61,33 @@
     <t>Sub up</t>
   </si>
   <si>
-    <t>Recorded Voltage [V]</t>
-  </si>
-  <si>
-    <t>Current [mA*10^-9]</t>
-  </si>
-  <si>
-    <t>Adjusted Voltage [V]</t>
-  </si>
-  <si>
     <t>Altered Current</t>
   </si>
   <si>
     <t>Altered Voltage</t>
+  </si>
+  <si>
+    <r>
+      <t>Recorded Voltage [V] (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.01V)</t>
+    </r>
+  </si>
+  <si>
+    <t>Recorded Voltage [V] (±0.01V)</t>
+  </si>
+  <si>
+    <t>Adjusted Voltage [V] (±0.01V)</t>
+  </si>
+  <si>
+    <t>Current [mA*10^-9] (0.05 mA*10^-9)</t>
   </si>
 </sst>
 </file>
@@ -83,9 +97,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,13 +107,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,15 +148,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -229,7 +266,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>Switch 1</c:v>
+            <c:v>Switch Position 0</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -500,7 +537,7 @@
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
-            <c:v>Switch 2</c:v>
+            <c:v>Switch Position 1</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
@@ -842,6 +879,36 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Uncalibrated</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> Voltage [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -934,6 +1001,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Adjusted Current [mA^(2/3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1014,6 +1106,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.21810545613519383"/>
+          <c:y val="0.34193452719152351"/>
+          <c:w val="0.15998284024031847"/>
+          <c:h val="9.224853049038749E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1783,6 +1885,44 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Calibrated Voltage</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-CA" baseline="0"/>
+                  <a:t> [V]</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-CA"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.39295950055409368"/>
+              <c:y val="0.84762894005721023"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1875,6 +2015,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Adjusted Current [mA^(2/3)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2065,12 +2230,25 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-CA"/>
-              <a:t>365</a:t>
+              <a:rPr lang="en-CA" sz="1200"/>
+              <a:t>Callibrated</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" sz="1200" baseline="0"/>
+              <a:t> measrements at a wavelength of 365 nm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10822900262467192"/>
+          <c:y val="2.7777777777777776E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2102,7 +2280,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12981714785651793"/>
+          <c:y val="0.14435185185185184"/>
+          <c:w val="0.81862729658792655"/>
+          <c:h val="0.618248031496063"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2510,6 +2698,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900"/>
+                  <a:t>Calibrated Voltage [V]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2602,6 +2815,31 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA" sz="900"/>
+                  <a:t>Photomultiplier Current [mA*10^-9]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2682,6 +2920,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24726137357830272"/>
+          <c:y val="0.27372630504520262"/>
+          <c:w val="0.17214391951006125"/>
+          <c:h val="7.8125546806649168E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7071,15 +7319,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>50006</xdr:colOff>
+      <xdr:colOff>50005</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>164306</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>73818</xdr:colOff>
+      <xdr:colOff>280986</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>11906</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7177,6 +7425,60 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:C11" totalsRowShown="0">
+  <autoFilter ref="A3:C11">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Recorded Voltage [V] (±0.01V)"/>
+    <tableColumn id="2" name="Adjusted Voltage [V] (±0.01V)">
+      <calculatedColumnFormula>A4-2.418</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Current [mA*10^-9] (0.05 mA*10^-9)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A16:C22" totalsRowShown="0">
+  <autoFilter ref="A16:C22">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Recorded Voltage [V] (±0.01V)"/>
+    <tableColumn id="2" name="Adjusted Voltage [V] (±0.01V)">
+      <calculatedColumnFormula>A17-2.418</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Current [mA*10^-9] (0.05 mA*10^-9)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A27:C35" totalsRowShown="0">
+  <autoFilter ref="A27:C35">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Recorded Voltage [V] (±0.01V)"/>
+    <tableColumn id="2" name="Adjusted Voltage [V] (±0.01V)">
+      <calculatedColumnFormula>A28-2.418</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" name="Current [mA*10^-9] (0.05 mA*10^-9)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7478,7 +7780,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K22" zoomScale="106" workbookViewId="0">
       <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
@@ -7518,25 +7820,25 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
         <v>0</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="H3" t="s">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
@@ -7551,7 +7853,7 @@
         <v>0.83750000000000002</v>
       </c>
       <c r="D4">
-        <f>C4^(2/3)</f>
+        <f t="shared" ref="D4:D39" si="0">C4^(2/3)</f>
         <v>0.88849818260367752</v>
       </c>
       <c r="F4">
@@ -7565,7 +7867,7 @@
         <v>2.4266000000000001</v>
       </c>
       <c r="I4">
-        <f>H4^(2/3)</f>
+        <f t="shared" ref="I4:I46" si="1">H4^(2/3)</f>
         <v>1.8057825925315851</v>
       </c>
     </row>
@@ -7574,28 +7876,28 @@
         <v>1</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B39" si="0">A5+2.418</f>
+        <f t="shared" ref="B5:B39" si="2">A5+2.418</f>
         <v>3.4180000000000001</v>
       </c>
       <c r="C5">
         <v>1.4303999999999999</v>
       </c>
       <c r="D5">
-        <f>C5^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>1.2695164546828319</v>
       </c>
       <c r="F5">
         <v>6.0030000000000001</v>
       </c>
       <c r="G5">
-        <f t="shared" ref="G5:G46" si="1">F5-0.07</f>
+        <f t="shared" ref="G5:G46" si="3">F5-0.07</f>
         <v>5.9329999999999998</v>
       </c>
       <c r="H5">
         <v>3.2075</v>
       </c>
       <c r="I5">
-        <f>H5^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.1749257912761819</v>
       </c>
     </row>
@@ -7604,28 +7906,28 @@
         <v>2.0009999999999999</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4.4190000000000005</v>
       </c>
       <c r="C6">
         <v>2.1160999999999999</v>
       </c>
       <c r="D6">
-        <f>C6^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>1.6482539484883461</v>
       </c>
       <c r="F6">
         <v>7.0119999999999996</v>
       </c>
       <c r="G6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6.9419999999999993</v>
       </c>
       <c r="H6">
         <v>4.0785999999999998</v>
       </c>
       <c r="I6">
-        <f>H6^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.5527448572279576</v>
       </c>
     </row>
@@ -7634,28 +7936,28 @@
         <v>3.0019999999999998</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5.42</v>
       </c>
       <c r="C7">
         <v>2.8673000000000002</v>
       </c>
       <c r="D7">
-        <f>C7^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.0182831284771843</v>
       </c>
       <c r="F7">
         <v>7.1</v>
       </c>
       <c r="G7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.0299999999999994</v>
       </c>
       <c r="H7">
         <v>4.1452</v>
       </c>
       <c r="I7">
-        <f>H7^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.5804591775319281</v>
       </c>
     </row>
@@ -7664,28 +7966,28 @@
         <v>4.0039999999999996</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6.4219999999999997</v>
       </c>
       <c r="C8">
         <v>3.6951999999999998</v>
       </c>
       <c r="D8">
-        <f>C8^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.3901507838320488</v>
       </c>
       <c r="F8">
         <v>7.2050000000000001</v>
       </c>
       <c r="G8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.1349999999999998</v>
       </c>
       <c r="H8">
         <v>4.2405999999999997</v>
       </c>
       <c r="I8">
-        <f>H8^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.6199009519108367</v>
       </c>
     </row>
@@ -7694,28 +7996,28 @@
         <v>5.0019999999999998</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.42</v>
       </c>
       <c r="C9">
         <v>4.5900999999999996</v>
       </c>
       <c r="D9">
-        <f>C9^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.761943338789874</v>
       </c>
       <c r="F9">
         <v>7.3</v>
       </c>
       <c r="G9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.2299999999999995</v>
       </c>
       <c r="H9">
         <v>4.3266999999999998</v>
       </c>
       <c r="I9">
-        <f>H9^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.6552445273745451</v>
       </c>
     </row>
@@ -7724,28 +8026,28 @@
         <v>5.5</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.9180000000000001</v>
       </c>
       <c r="C10">
         <v>5.0692000000000004</v>
       </c>
       <c r="D10">
-        <f>C10^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.9509348235262696</v>
       </c>
       <c r="F10">
         <v>7.4130000000000003</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.343</v>
       </c>
       <c r="H10">
         <v>4.4333</v>
       </c>
       <c r="I10">
-        <f>H10^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.6986801454947553</v>
       </c>
     </row>
@@ -7754,28 +8056,28 @@
         <v>5.12</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.5380000000000003</v>
       </c>
       <c r="C11">
         <v>4.7108999999999996</v>
       </c>
       <c r="D11">
-        <f>C11^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.810191550287843</v>
       </c>
       <c r="F11">
         <v>7.5049999999999999</v>
       </c>
       <c r="G11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.4349999999999996</v>
       </c>
       <c r="H11">
         <v>4.5175999999999998</v>
       </c>
       <c r="I11">
-        <f>H11^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.7327832251382156</v>
       </c>
     </row>
@@ -7784,28 +8086,28 @@
         <v>5.2089999999999996</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6269999999999998</v>
       </c>
       <c r="C12">
         <v>4.7853000000000003</v>
       </c>
       <c r="D12">
-        <f>C12^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.8397020818385852</v>
       </c>
       <c r="F12">
         <v>7.6020000000000003</v>
       </c>
       <c r="G12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.532</v>
       </c>
       <c r="H12">
         <v>4.6079999999999997</v>
       </c>
       <c r="I12">
-        <f>H12^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.7691191749902235</v>
       </c>
     </row>
@@ -7814,28 +8116,28 @@
         <v>5.2679999999999998</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.6859999999999999</v>
       </c>
       <c r="C13">
         <v>4.8468999999999998</v>
       </c>
       <c r="D13">
-        <f>C13^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.8640199558190718</v>
       </c>
       <c r="F13">
         <v>7.7080000000000002</v>
       </c>
       <c r="G13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.6379999999999999</v>
       </c>
       <c r="H13">
         <v>4.7054999999999998</v>
       </c>
       <c r="I13">
-        <f>H13^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.808043633048583</v>
       </c>
     </row>
@@ -7844,28 +8146,28 @@
         <v>5.4009999999999998</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7.819</v>
       </c>
       <c r="C14">
         <v>4.9682000000000004</v>
       </c>
       <c r="D14">
-        <f>C14^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.9116067240118975</v>
       </c>
       <c r="F14">
         <v>7.8010000000000002</v>
       </c>
       <c r="G14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.7309999999999999</v>
       </c>
       <c r="H14" s="2">
         <v>4.7930999999999999</v>
       </c>
       <c r="I14">
-        <f>H14^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.8427870383087122</v>
       </c>
     </row>
@@ -7874,28 +8176,28 @@
         <v>5.5910000000000002</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.0090000000000003</v>
       </c>
       <c r="C15">
         <v>5.1611000000000002</v>
       </c>
       <c r="D15">
-        <f>C15^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>2.9864931017573073</v>
       </c>
       <c r="F15">
         <v>7.9009999999999998</v>
       </c>
       <c r="G15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.8309999999999995</v>
       </c>
       <c r="H15">
         <v>4.8912000000000004</v>
       </c>
       <c r="I15">
-        <f>H15^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.8814446455961154</v>
       </c>
       <c r="J15" s="1"/>
@@ -7905,28 +8207,28 @@
         <v>5.7039999999999997</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.1219999999999999</v>
       </c>
       <c r="C16">
         <v>5.2721</v>
       </c>
       <c r="D16">
-        <f>C16^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.0291614845071742</v>
       </c>
       <c r="F16">
         <v>8.0050000000000008</v>
       </c>
       <c r="G16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7.9350000000000005</v>
       </c>
       <c r="H16">
         <v>4.9936999999999996</v>
       </c>
       <c r="I16">
-        <f>H16^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.9215610472269788</v>
       </c>
     </row>
@@ -7935,28 +8237,28 @@
         <v>5.8049999999999997</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.222999999999999</v>
       </c>
       <c r="C17">
         <v>5.3661000000000003</v>
       </c>
       <c r="D17">
-        <f>C17^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.065061369276326</v>
       </c>
       <c r="F17">
         <v>8.1050000000000004</v>
       </c>
       <c r="G17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.0350000000000001</v>
       </c>
       <c r="H17">
         <v>5.0883000000000003</v>
       </c>
       <c r="I17">
-        <f>H17^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.9583426353808333</v>
       </c>
     </row>
@@ -7965,28 +8267,28 @@
         <v>5.9029999999999996</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.3209999999999997</v>
       </c>
       <c r="C18">
         <v>5.4691000000000001</v>
       </c>
       <c r="D18">
-        <f>C18^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.1041586507243615</v>
       </c>
       <c r="F18">
         <v>8.1869999999999994</v>
       </c>
       <c r="G18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.1169999999999991</v>
       </c>
       <c r="H18">
         <v>5.1684000000000001</v>
       </c>
       <c r="I18">
-        <f>H18^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>2.989308556273552</v>
       </c>
     </row>
@@ -7995,28 +8297,28 @@
         <v>6.0069999999999997</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.4250000000000007</v>
       </c>
       <c r="C19">
         <v>5.5701000000000001</v>
       </c>
       <c r="D19">
-        <f>C19^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.1422591153980535</v>
       </c>
       <c r="F19">
         <v>8.3070000000000004</v>
       </c>
       <c r="G19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.2370000000000001</v>
       </c>
       <c r="H19">
         <v>5.2830000000000004</v>
       </c>
       <c r="I19">
-        <f>H19^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.0333352158208609</v>
       </c>
     </row>
@@ -8025,28 +8327,28 @@
         <v>6.1040000000000001</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.5220000000000002</v>
       </c>
       <c r="C20">
         <v>5.6685999999999996</v>
       </c>
       <c r="D20">
-        <f>C20^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.1791953042150967</v>
       </c>
       <c r="F20">
         <v>8.4019999999999992</v>
       </c>
       <c r="G20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.331999999999999</v>
       </c>
       <c r="H20">
         <v>5.3780000000000001</v>
       </c>
       <c r="I20">
-        <f>H20^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.0695911348458544</v>
       </c>
     </row>
@@ -8055,28 +8357,28 @@
         <v>6.2050000000000001</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.6230000000000011</v>
       </c>
       <c r="C21">
         <v>5.7691999999999997</v>
       </c>
       <c r="D21">
-        <f>C21^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.2166987964014284</v>
       </c>
       <c r="F21">
         <v>8.4979999999999993</v>
       </c>
       <c r="G21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.427999999999999</v>
       </c>
       <c r="H21">
         <v>5.4752000000000001</v>
       </c>
       <c r="I21">
-        <f>H21^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.1064663856427717</v>
       </c>
     </row>
@@ -8085,28 +8387,28 @@
         <v>6.3079999999999998</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.7259999999999991</v>
       </c>
       <c r="C22">
         <v>5.8657000000000004</v>
       </c>
       <c r="D22">
-        <f>C22^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.2524694916181072</v>
       </c>
       <c r="F22">
         <v>8.6059999999999999</v>
       </c>
       <c r="G22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.5359999999999996</v>
       </c>
       <c r="H22">
         <v>5.5861000000000001</v>
       </c>
       <c r="I22">
-        <f>H22^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.1482736222576038</v>
       </c>
     </row>
@@ -8115,28 +8417,28 @@
         <v>6.4020000000000001</v>
       </c>
       <c r="B23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.82</v>
       </c>
       <c r="C23">
         <v>5.9695</v>
       </c>
       <c r="D23">
-        <f>C23^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.2907278825448167</v>
       </c>
       <c r="F23">
         <v>8.7040000000000006</v>
       </c>
       <c r="G23">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.6340000000000003</v>
       </c>
       <c r="H23">
         <v>5.6864999999999997</v>
       </c>
       <c r="I23">
-        <f>H23^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.1858845147131558</v>
       </c>
     </row>
@@ -8145,28 +8447,28 @@
         <v>6.508</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8.9260000000000002</v>
       </c>
       <c r="C24">
         <v>6.0784000000000002</v>
       </c>
       <c r="D24">
-        <f>C24^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.3306284246566542</v>
       </c>
       <c r="F24">
         <v>8.8030000000000008</v>
       </c>
       <c r="G24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.7330000000000005</v>
       </c>
       <c r="H24">
         <v>5.7862999999999998</v>
       </c>
       <c r="I24">
-        <f>H24^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.2230518912575952</v>
       </c>
     </row>
@@ -8175,28 +8477,28 @@
         <v>6.7560000000000002</v>
       </c>
       <c r="B25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.1739999999999995</v>
       </c>
       <c r="C25">
         <v>6.2938000000000001</v>
       </c>
       <c r="D25">
-        <f>C25^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.4088557616907988</v>
       </c>
       <c r="F25">
         <v>8.9</v>
       </c>
       <c r="G25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.83</v>
       </c>
       <c r="H25">
         <v>5.8887</v>
       </c>
       <c r="I25">
-        <f>H25^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.2609661184273255</v>
       </c>
     </row>
@@ -8205,28 +8507,28 @@
         <v>6.8</v>
       </c>
       <c r="B26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.218</v>
       </c>
       <c r="C26">
         <v>6.3414999999999999</v>
       </c>
       <c r="D26">
-        <f>C26^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.4260576341926599</v>
       </c>
       <c r="F26">
         <v>9.01</v>
       </c>
       <c r="G26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8.94</v>
       </c>
       <c r="H26">
         <v>5.9970999999999997</v>
       </c>
       <c r="I26">
-        <f>H26^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.3008632088330221</v>
       </c>
     </row>
@@ -8235,28 +8537,28 @@
         <v>7.0030000000000001</v>
       </c>
       <c r="B27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.4209999999999994</v>
       </c>
       <c r="C27">
         <v>6.5552000000000001</v>
       </c>
       <c r="D27">
-        <f>C27^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.5026007075855841</v>
       </c>
       <c r="F27">
         <v>9.1</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.0299999999999994</v>
       </c>
       <c r="H27">
         <v>6.0814000000000004</v>
       </c>
       <c r="I27">
-        <f>H27^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.331724224377723</v>
       </c>
     </row>
@@ -8265,28 +8567,28 @@
         <v>7.2409999999999997</v>
       </c>
       <c r="B28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.6589999999999989</v>
       </c>
       <c r="C28">
         <v>6.7960000000000003</v>
       </c>
       <c r="D28">
-        <f>C28^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.5878607584374302</v>
       </c>
       <c r="F28">
         <v>9.2050000000000001</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.1349999999999998</v>
       </c>
       <c r="H28">
         <v>6.1881000000000004</v>
       </c>
       <c r="I28">
-        <f>H28^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.3705818837497095</v>
       </c>
     </row>
@@ -8295,28 +8597,28 @@
         <v>7.5119999999999996</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>9.93</v>
       </c>
       <c r="C29">
         <v>7.0845000000000002</v>
       </c>
       <c r="D29">
-        <f>C29^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.6886954760292237</v>
       </c>
       <c r="F29">
         <v>9.3070000000000004</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.2370000000000001</v>
       </c>
       <c r="H29">
         <v>6.2964000000000002</v>
       </c>
       <c r="I29">
-        <f>H29^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.4097945072145222</v>
       </c>
     </row>
@@ -8325,28 +8627,28 @@
         <v>7.7560000000000002</v>
       </c>
       <c r="B30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.173999999999999</v>
       </c>
       <c r="C30">
         <v>7.3422000000000001</v>
       </c>
       <c r="D30">
-        <f>C30^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.777613081130867</v>
       </c>
       <c r="F30">
         <v>9.3889999999999993</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.3189999999999991</v>
       </c>
       <c r="H30">
         <v>6.3804999999999996</v>
       </c>
       <c r="I30">
-        <f>H30^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.4400900308260653</v>
       </c>
     </row>
@@ -8355,28 +8657,28 @@
         <v>8.0489999999999995</v>
       </c>
       <c r="B31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.466999999999999</v>
       </c>
       <c r="C31">
         <v>7.6543999999999999</v>
       </c>
       <c r="D31">
-        <f>C31^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>3.8839542215049447</v>
       </c>
       <c r="F31">
         <v>9.5030000000000001</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.4329999999999998</v>
       </c>
       <c r="H31">
         <v>6.5003000000000002</v>
       </c>
       <c r="I31">
-        <f>H31^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.4830170495749351</v>
       </c>
     </row>
@@ -8385,28 +8687,28 @@
         <v>8.5370000000000008</v>
       </c>
       <c r="B32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>10.955000000000002</v>
       </c>
       <c r="C32">
         <v>8.2340999999999998</v>
       </c>
       <c r="D32">
-        <f>C32^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>4.0776576249797785</v>
       </c>
       <c r="F32">
         <v>9.6620000000000008</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.5920000000000005</v>
       </c>
       <c r="H32">
         <v>6.6643999999999997</v>
       </c>
       <c r="I32">
-        <f>H32^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.5413922875186925</v>
       </c>
     </row>
@@ -8415,28 +8717,28 @@
         <v>9.0649999999999995</v>
       </c>
       <c r="B33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.483000000000001</v>
       </c>
       <c r="C33">
         <v>9.0761000000000003</v>
       </c>
       <c r="D33">
-        <f>C33^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>4.3511045102989634</v>
       </c>
       <c r="F33">
         <v>9.7550000000000008</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.6850000000000005</v>
       </c>
       <c r="H33">
         <v>6.7628000000000004</v>
       </c>
       <c r="I33">
-        <f>H33^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.5761662151836187</v>
       </c>
     </row>
@@ -8445,28 +8747,28 @@
         <v>9.5489999999999995</v>
       </c>
       <c r="B34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>11.966999999999999</v>
       </c>
       <c r="C34">
         <v>10.1776</v>
       </c>
       <c r="D34">
-        <f>C34^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>4.6963838452932141</v>
       </c>
       <c r="F34">
         <v>10.012</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>9.9420000000000002</v>
       </c>
       <c r="H34">
         <v>7.0326000000000004</v>
       </c>
       <c r="I34">
-        <f>H34^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.670658182680941</v>
       </c>
     </row>
@@ -8475,28 +8777,28 @@
         <v>10.076000000000001</v>
       </c>
       <c r="B35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.494</v>
       </c>
       <c r="C35">
         <v>12.156000000000001</v>
       </c>
       <c r="D35">
-        <f>C35^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>5.2868111135782048</v>
       </c>
       <c r="F35">
         <v>10.27</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.199999999999999</v>
       </c>
       <c r="H35">
         <v>7.3014000000000001</v>
       </c>
       <c r="I35">
-        <f>H35^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.7636054982797789</v>
       </c>
     </row>
@@ -8505,28 +8807,28 @@
         <v>10.494999999999999</v>
       </c>
       <c r="B36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>12.913</v>
       </c>
       <c r="C36">
         <v>14.525</v>
       </c>
       <c r="D36">
-        <f>C36^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>5.9531125583287441</v>
       </c>
       <c r="F36">
         <v>10.502000000000001</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.432</v>
       </c>
       <c r="H36">
         <v>7.5517000000000003</v>
       </c>
       <c r="I36">
-        <f>H36^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.8491350818076762</v>
       </c>
     </row>
@@ -8535,28 +8837,28 @@
         <v>10.763</v>
       </c>
       <c r="B37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.181000000000001</v>
       </c>
       <c r="C37">
         <v>16.954999999999998</v>
       </c>
       <c r="D37">
-        <f>C37^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>6.5998165314778401</v>
       </c>
       <c r="F37">
         <v>10.775</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.705</v>
       </c>
       <c r="H37">
         <v>7.8498999999999999</v>
       </c>
       <c r="I37">
-        <f>H37^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>3.9498088891140322</v>
       </c>
     </row>
@@ -8565,28 +8867,28 @@
         <v>11.026</v>
       </c>
       <c r="B38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.443999999999999</v>
       </c>
       <c r="C38">
         <v>21.56</v>
       </c>
       <c r="D38">
-        <f>C38^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>7.7463866610619565</v>
       </c>
       <c r="F38">
         <v>11.004</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>10.933999999999999</v>
       </c>
       <c r="H38">
         <v>8.1267999999999994</v>
       </c>
       <c r="I38">
-        <f>H38^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>4.0421557915694759</v>
       </c>
     </row>
@@ -8595,28 +8897,28 @@
         <v>11.138999999999999</v>
       </c>
       <c r="B39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13.556999999999999</v>
       </c>
       <c r="C39">
         <v>47.502000000000002</v>
       </c>
       <c r="D39">
-        <f>C39^(2/3)</f>
+        <f t="shared" si="0"/>
         <v>13.116196977075232</v>
       </c>
       <c r="F39">
         <v>11.488</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.417999999999999</v>
       </c>
       <c r="H39">
         <v>8.8444000000000003</v>
       </c>
       <c r="I39">
-        <f>H39^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>4.2767341114769204</v>
       </c>
     </row>
@@ -8625,14 +8927,14 @@
         <v>12.01</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>11.94</v>
       </c>
       <c r="H40">
         <v>9.9</v>
       </c>
       <c r="I40">
-        <f>H40^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>4.6105931042857726</v>
       </c>
     </row>
@@ -8641,14 +8943,14 @@
         <v>12.505000000000001</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.435</v>
       </c>
       <c r="H41">
         <v>11.555</v>
       </c>
       <c r="I41">
-        <f>H41^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>5.1110873104156678</v>
       </c>
     </row>
@@ -8657,14 +8959,14 @@
         <v>12.756</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.686</v>
       </c>
       <c r="H42">
         <v>12.888</v>
       </c>
       <c r="I42">
-        <f>H42^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>5.4969740269448382</v>
       </c>
     </row>
@@ -8673,14 +8975,14 @@
         <v>13.004</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>12.933999999999999</v>
       </c>
       <c r="H43">
         <v>14.4</v>
       </c>
       <c r="I43">
-        <f>H43^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>5.9189089783931275</v>
       </c>
     </row>
@@ -8689,14 +8991,14 @@
         <v>13.297000000000001</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.227</v>
       </c>
       <c r="H44">
         <v>17.317</v>
       </c>
       <c r="I44">
-        <f>H44^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>6.6934255624657863</v>
       </c>
     </row>
@@ -8705,14 +9007,14 @@
         <v>13.512</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.442</v>
       </c>
       <c r="H45">
         <v>21.3</v>
       </c>
       <c r="I45">
-        <f>H45^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>7.6839831226550981</v>
       </c>
     </row>
@@ -8721,14 +9023,14 @@
         <v>13.742000000000001</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>13.672000000000001</v>
       </c>
       <c r="H46">
         <v>24.617000000000001</v>
       </c>
       <c r="I46">
-        <f>H46^(2/3)</f>
+        <f t="shared" si="1"/>
         <v>8.4623324657175534</v>
       </c>
     </row>
@@ -8747,7 +9049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -8765,10 +9067,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.45">
-      <c r="A1" s="4">
+      <c r="A1" s="5">
         <v>365</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="5"/>
       <c r="C1" t="s">
         <v>5</v>
       </c>
@@ -9663,7 +9965,7 @@
       <c r="H16">
         <v>11.167</v>
       </c>
-      <c r="I16" s="5">
+      <c r="I16" s="4">
         <v>3.9</v>
       </c>
       <c r="J16">
@@ -10172,15 +10474,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="17.53125" customWidth="1"/>
-    <col min="2" max="2" width="16.86328125" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="1" max="1" width="25.19921875" customWidth="1"/>
+    <col min="2" max="2" width="24.53125" customWidth="1"/>
+    <col min="3" max="3" width="30.6640625" customWidth="1"/>
     <col min="4" max="4" width="17.59765625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="16.265625" customWidth="1"/>
@@ -10193,25 +10495,25 @@
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A2" s="4">
+    <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="6">
         <v>365</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -10310,22 +10612,22 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A15" s="4">
+    <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="6">
         <v>492</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.45">
@@ -10345,7 +10647,7 @@
         <v>12.608000000000001</v>
       </c>
       <c r="B18">
-        <f t="shared" ref="B18:B24" si="1">A18-2.418</f>
+        <f t="shared" ref="B18:B22" si="1">A18-2.418</f>
         <v>10.190000000000001</v>
       </c>
       <c r="C18">
@@ -10400,22 +10702,22 @@
         <v>10.53</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.45">
-      <c r="A26" s="4">
+    <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="6">
         <v>546</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.45">
@@ -10426,7 +10728,7 @@
         <f>A28-2.418</f>
         <v>8.7489999999999988</v>
       </c>
-      <c r="C28" s="5">
+      <c r="C28" s="4">
         <v>3.9</v>
       </c>
     </row>
@@ -10438,7 +10740,7 @@
         <f t="shared" ref="B29:B35" si="2">A29-2.418</f>
         <v>8.9720000000000013</v>
       </c>
-      <c r="C29" s="5">
+      <c r="C29" s="4">
         <v>4.0999999999999996</v>
       </c>
     </row>
@@ -10521,5 +10823,11 @@
     <mergeCell ref="A26:C26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Ionization of Mercury/IonizationofMercury.xlsx
+++ b/Ionization of Mercury/IonizationofMercury.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="4290" windowHeight="5415" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="4290" windowHeight="5415" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Part 1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
   <si>
     <t>Voltage (V)</t>
   </si>
@@ -89,6 +89,61 @@
   <si>
     <t>Current [mA*10^-9] (0.05 mA*10^-9)</t>
   </si>
+  <si>
+    <t>Extinctiion potentials</t>
+  </si>
+  <si>
+    <r>
+      <t>Expected Value [V] (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Wavelength [nm] (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±2)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Experimental Value [V] (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±0.1)</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -99,10 +154,18 @@
     <numFmt numFmtId="165" formatCode="#,##0.0000"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -148,7 +211,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -158,6 +221,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7481,6 +7547,22 @@
 </table>
 </file>
 
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table5" displayName="Table5" ref="A39:C42" totalsRowShown="0">
+  <autoFilter ref="A39:C42">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Wavelength [nm] (±2)"/>
+    <tableColumn id="2" name="Expected Value [V] (±0.1)"/>
+    <tableColumn id="3" name="Experimental Value [V] (±0.1)"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9049,7 +9131,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+    <sheetView topLeftCell="C31" workbookViewId="0">
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
@@ -10472,10 +10554,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -10496,11 +10578,11 @@
       <c r="F1" s="3"/>
     </row>
     <row r="2" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="6">
+      <c r="A2" s="7">
         <v>365</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -10613,11 +10695,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="6">
+      <c r="A15" s="7">
         <v>492</v>
       </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
@@ -10703,11 +10785,11 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="6">
+      <c r="A26" s="7">
         <v>546</v>
       </c>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
@@ -10816,18 +10898,71 @@
         <v>11.1</v>
       </c>
     </row>
+    <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A38" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A39" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>365</v>
+      </c>
+      <c r="B40">
+        <v>9.6</v>
+      </c>
+      <c r="C40">
+        <v>9.516</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>492</v>
+      </c>
+      <c r="B41">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="C41">
+        <v>9.1660000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>546</v>
+      </c>
+      <c r="B42">
+        <v>7.9</v>
+      </c>
+      <c r="C42">
+        <v>8.0549999999999997</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A15:C15"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A38:C38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="4">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>